--- a/raw_data/20200818_saline/20200818_Sensor1_Test_5.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_5.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BCC8C3-D8B2-401C-ADA5-1EF1E8450435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>3786.816317</v>
+        <v>3786.8163169999998</v>
       </c>
       <c r="B2" s="1">
         <v>1.051893</v>
       </c>
       <c r="C2" s="1">
-        <v>894.185000</v>
+        <v>894.18499999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.238000</v>
+        <v>-195.238</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>3797.252637</v>
@@ -496,148 +912,148 @@
         <v>1.054792</v>
       </c>
       <c r="H2" s="1">
-        <v>912.611000</v>
+        <v>912.61099999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.172000</v>
+        <v>-166.172</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>3807.688960</v>
+        <v>3807.68896</v>
       </c>
       <c r="L2" s="1">
-        <v>1.057691</v>
+        <v>1.0576909999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>936.940000</v>
+        <v>936.94</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.759000</v>
+        <v>-118.759</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>3818.506209</v>
+        <v>3818.5062090000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.060696</v>
+        <v>1.0606960000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>944.064000</v>
+        <v>944.06399999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.732000</v>
+        <v>-102.732</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>3829.053140</v>
+        <v>3829.05314</v>
       </c>
       <c r="V2" s="1">
         <v>1.063626</v>
       </c>
       <c r="W2" s="1">
-        <v>950.970000</v>
+        <v>950.97</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.865000</v>
+        <v>-87.864999999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>3839.486486</v>
+        <v>3839.4864859999998</v>
       </c>
       <c r="AA2" s="1">
         <v>1.066524</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.439000</v>
+        <v>958.43899999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.228200</v>
+        <v>-76.228200000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>3850.376185</v>
+        <v>3850.3761850000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.069549</v>
+        <v>1.0695490000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.262000</v>
+        <v>963.26199999999994</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.049200</v>
+        <v>-74.049199999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3861.149755</v>
+        <v>3861.1497549999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.072542</v>
+        <v>1.0725420000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.495000</v>
+        <v>970.495</v>
       </c>
       <c r="AM2" s="1">
-        <v>-78.473600</v>
+        <v>-78.473600000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>3871.728459</v>
+        <v>3871.7284589999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>1.075480</v>
+        <v>1.07548</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.528000</v>
+        <v>978.52800000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-89.726300</v>
+        <v>-89.726299999999995</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>3882.476237</v>
+        <v>3882.4762369999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.078466</v>
+        <v>1.0784659999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.253000</v>
+        <v>988.25300000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-106.882000</v>
+        <v>-106.88200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>3893.234465</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.081454</v>
+        <v>1.0814539999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>996.328000</v>
+        <v>996.32799999999997</v>
       </c>
       <c r="BB2" s="1">
-        <v>-122.107000</v>
+        <v>-122.107</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>3903.811185</v>
@@ -646,165 +1062,165 @@
         <v>1.084392</v>
       </c>
       <c r="BF2" s="1">
-        <v>1033.780000</v>
+        <v>1033.78</v>
       </c>
       <c r="BG2" s="1">
-        <v>-192.397000</v>
+        <v>-192.39699999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>3914.475667</v>
+        <v>3914.4756670000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.087354</v>
+        <v>1.0873539999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1097.950000</v>
+        <v>1097.95</v>
       </c>
       <c r="BL2" s="1">
-        <v>-307.388000</v>
+        <v>-307.38799999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>3924.484902</v>
+        <v>3924.4849020000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>1.090135</v>
+        <v>1.0901350000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1202.540000</v>
+        <v>1202.54</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.532000</v>
+        <v>-490.53199999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>3935.930583</v>
+        <v>3935.9305829999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.093314</v>
+        <v>1.0933139999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1321.010000</v>
+        <v>1321.01</v>
       </c>
       <c r="BV2" s="1">
-        <v>-692.919000</v>
+        <v>-692.91899999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>3946.274682</v>
+        <v>3946.2746820000002</v>
       </c>
       <c r="BY2" s="1">
         <v>1.096187</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1455.150000</v>
+        <v>1455.15</v>
       </c>
       <c r="CA2" s="1">
-        <v>-908.828000</v>
+        <v>-908.82799999999997</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>3957.182428</v>
+        <v>3957.1824280000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.099217</v>
+        <v>1.0992170000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1809.850000</v>
+        <v>1809.85</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1423.860000</v>
+        <v>-1423.86</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>3787.186828</v>
+        <v>3787.1868279999999</v>
       </c>
       <c r="B3" s="1">
-        <v>1.051996</v>
+        <v>1.0519959999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>894.170000</v>
+        <v>894.17</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.363000</v>
+        <v>-195.363</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>3797.949516</v>
+        <v>3797.9495160000001</v>
       </c>
       <c r="G3" s="1">
         <v>1.054986</v>
       </c>
       <c r="H3" s="1">
-        <v>912.560000</v>
+        <v>912.56</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.122000</v>
+        <v>-166.12200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>3808.419568</v>
+        <v>3808.4195679999998</v>
       </c>
       <c r="L3" s="1">
-        <v>1.057894</v>
+        <v>1.0578939999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>936.956000</v>
+        <v>936.95600000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.732000</v>
+        <v>-118.732</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>3818.860354</v>
+        <v>3818.8603539999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.060795</v>
+        <v>1.0607949999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>944.124000</v>
+        <v>944.12400000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.733000</v>
+        <v>-102.733</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>3829.410755</v>
+        <v>3829.4107549999999</v>
       </c>
       <c r="V3" s="1">
         <v>1.063725</v>
       </c>
       <c r="W3" s="1">
-        <v>950.941000</v>
+        <v>950.94100000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.848900</v>
+        <v>-87.8489</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>3839.847573</v>
@@ -813,225 +1229,225 @@
         <v>1.066624</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.319000</v>
+        <v>958.31899999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.326300</v>
+        <v>-76.326300000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>3851.067078</v>
       </c>
       <c r="AF3" s="1">
-        <v>1.069741</v>
+        <v>1.0697410000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.253000</v>
+        <v>963.25300000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.053100</v>
+        <v>-74.053100000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>3861.574453</v>
+        <v>3861.5744530000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.072660</v>
+        <v>1.0726599999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.496000</v>
+        <v>970.49599999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-78.515300</v>
+        <v>-78.515299999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>3872.168907</v>
+        <v>3872.1689070000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.075602</v>
+        <v>1.0756019999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.525000</v>
+        <v>978.52499999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-89.696300</v>
+        <v>-89.696299999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>3882.844270</v>
+        <v>3882.8442700000001</v>
       </c>
       <c r="AU3" s="1">
         <v>1.078568</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.256000</v>
+        <v>988.25599999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-106.888000</v>
+        <v>-106.88800000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>3893.626337</v>
+        <v>3893.6263370000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.081563</v>
+        <v>1.0815630000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>996.336000</v>
+        <v>996.33600000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-122.079000</v>
+        <v>-122.07899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>3904.210432</v>
+        <v>3904.2104319999999</v>
       </c>
       <c r="BE3" s="1">
         <v>1.084503</v>
       </c>
       <c r="BF3" s="1">
-        <v>1033.790000</v>
+        <v>1033.79</v>
       </c>
       <c r="BG3" s="1">
-        <v>-192.385000</v>
+        <v>-192.38499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>3914.891778</v>
+        <v>3914.8917780000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1.087470</v>
+        <v>1.0874699999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1097.940000</v>
+        <v>1097.94</v>
       </c>
       <c r="BL3" s="1">
-        <v>-307.413000</v>
+        <v>-307.41300000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>3924.909477</v>
+        <v>3924.9094770000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>1.090253</v>
+        <v>1.0902529999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1202.560000</v>
+        <v>1202.56</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.501000</v>
+        <v>-490.50099999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>3936.090295</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.093358</v>
+        <v>1.0933580000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1320.970000</v>
+        <v>1320.97</v>
       </c>
       <c r="BV3" s="1">
-        <v>-692.761000</v>
+        <v>-692.76099999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>3946.739400</v>
+        <v>3946.7393999999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.096316</v>
+        <v>1.0963160000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1455.100000</v>
+        <v>1455.1</v>
       </c>
       <c r="CA3" s="1">
-        <v>-908.853000</v>
+        <v>-908.85299999999995</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>3957.779887</v>
+        <v>3957.7798870000001</v>
       </c>
       <c r="CD3" s="1">
         <v>1.099383</v>
       </c>
       <c r="CE3" s="1">
-        <v>1808.880000</v>
+        <v>1808.88</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1422.330000</v>
+        <v>-1422.33</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>3787.875274</v>
       </c>
       <c r="B4" s="1">
-        <v>1.052188</v>
+        <v>1.0521879999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>894.106000</v>
+        <v>894.10599999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.103000</v>
+        <v>-195.10300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>3798.285340</v>
+        <v>3798.2853399999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1.055079</v>
+        <v>1.0550790000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>912.589000</v>
+        <v>912.58900000000006</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.943000</v>
+        <v>-165.94300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>3808.763327</v>
+        <v>3808.7633270000001</v>
       </c>
       <c r="L4" s="1">
-        <v>1.057990</v>
+        <v>1.05799</v>
       </c>
       <c r="M4" s="1">
-        <v>937.129000</v>
+        <v>937.12900000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.694000</v>
+        <v>-118.694</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>3819.206561</v>
@@ -1040,225 +1456,225 @@
         <v>1.060891</v>
       </c>
       <c r="R4" s="1">
-        <v>944.114000</v>
+        <v>944.11400000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.775000</v>
+        <v>-102.77500000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>3830.059058</v>
+        <v>3830.0590579999998</v>
       </c>
       <c r="V4" s="1">
-        <v>1.063905</v>
+        <v>1.0639050000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>950.974000</v>
+        <v>950.97400000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.885500</v>
+        <v>-87.885499999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>3840.501796</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.066806</v>
+        <v>1.0668059999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.448000</v>
+        <v>958.44799999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.357900</v>
+        <v>-76.357900000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>3851.441875</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.069845</v>
+        <v>1.0698449999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.263000</v>
+        <v>963.26300000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.046100</v>
+        <v>-74.046099999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>3861.920040</v>
+        <v>3861.92004</v>
       </c>
       <c r="AK4" s="1">
         <v>1.072756</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.508000</v>
+        <v>970.50800000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-78.490200</v>
+        <v>-78.490200000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>3872.530954</v>
+        <v>3872.5309539999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>1.075703</v>
+        <v>1.0757030000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.535000</v>
+        <v>978.53499999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-89.711400</v>
+        <v>-89.711399999999998</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>3883.207340</v>
+        <v>3883.2073399999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.078669</v>
+        <v>1.0786690000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.253000</v>
+        <v>988.25300000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-106.879000</v>
+        <v>-106.879</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>3894.037983</v>
+        <v>3894.0379830000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>1.081677</v>
       </c>
       <c r="BA4" s="1">
-        <v>996.302000</v>
+        <v>996.30200000000002</v>
       </c>
       <c r="BB4" s="1">
-        <v>-122.122000</v>
+        <v>-122.122</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>3904.631536</v>
+        <v>3904.6315359999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.084620</v>
+        <v>1.0846199999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1033.780000</v>
+        <v>1033.78</v>
       </c>
       <c r="BG4" s="1">
-        <v>-192.389000</v>
+        <v>-192.38900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>3915.246450</v>
+        <v>3915.2464500000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.087568</v>
+        <v>1.0875680000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1097.940000</v>
+        <v>1097.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-307.454000</v>
+        <v>-307.45400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>3925.318714</v>
       </c>
       <c r="BO4" s="1">
-        <v>1.090366</v>
+        <v>1.0903659999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1202.550000</v>
+        <v>1202.55</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.518000</v>
+        <v>-490.51799999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>3936.501090</v>
+        <v>3936.5010900000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.093473</v>
+        <v>1.0934729999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1320.940000</v>
+        <v>1320.94</v>
       </c>
       <c r="BV4" s="1">
-        <v>-692.721000</v>
+        <v>-692.721</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>3947.183490</v>
+        <v>3947.1834899999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.096440</v>
+        <v>1.0964400000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1455.110000</v>
+        <v>1455.11</v>
       </c>
       <c r="CA4" s="1">
-        <v>-908.895000</v>
+        <v>-908.89499999999998</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>3958.629497</v>
+        <v>3958.6294969999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.099619</v>
+        <v>1.0996189999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1808.820000</v>
+        <v>1808.82</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1423.630000</v>
+        <v>-1423.63</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>3788.215073</v>
+        <v>3788.2150729999998</v>
       </c>
       <c r="B5" s="1">
-        <v>1.052282</v>
+        <v>1.0522819999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>894.104000</v>
+        <v>894.10400000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.208000</v>
+        <v>-195.208</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>3798.630525</v>
@@ -1267,58 +1683,58 @@
         <v>1.055175</v>
       </c>
       <c r="H5" s="1">
-        <v>912.471000</v>
+        <v>912.471</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.159000</v>
+        <v>-166.15899999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>3809.413055</v>
       </c>
       <c r="L5" s="1">
-        <v>1.058170</v>
+        <v>1.0581700000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>936.907000</v>
+        <v>936.90700000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.730000</v>
+        <v>-118.73</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>3819.866240</v>
+        <v>3819.8662399999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.061074</v>
+        <v>1.0610740000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>944.097000</v>
+        <v>944.09699999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.777000</v>
+        <v>-102.777</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>3830.441442</v>
+        <v>3830.4414419999998</v>
       </c>
       <c r="V5" s="1">
         <v>1.064012</v>
       </c>
       <c r="W5" s="1">
-        <v>950.967000</v>
+        <v>950.96699999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.899200</v>
+        <v>-87.899199999999993</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>3840.898596</v>
@@ -1327,148 +1743,148 @@
         <v>1.066916</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.327000</v>
+        <v>958.327</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.368600</v>
+        <v>-76.368600000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>3851.786277</v>
+        <v>3851.7862770000002</v>
       </c>
       <c r="AF5" s="1">
         <v>1.069941</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.227000</v>
+        <v>963.22699999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.085000</v>
+        <v>-74.084999999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>3862.271241</v>
+        <v>3862.2712409999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.072853</v>
+        <v>1.0728530000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.519000</v>
+        <v>970.51900000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-78.539200</v>
+        <v>-78.539199999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>3872.890139</v>
+        <v>3872.8901390000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.075803</v>
+        <v>1.0758030000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.550000</v>
+        <v>978.55</v>
       </c>
       <c r="AR5" s="1">
-        <v>-89.699700</v>
+        <v>-89.699700000000007</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>3883.624011</v>
+        <v>3883.6240109999999</v>
       </c>
       <c r="AU5" s="1">
         <v>1.078784</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.246000</v>
+        <v>988.24599999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-106.879000</v>
+        <v>-106.879</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>3894.343021</v>
+        <v>3894.3430210000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.081762</v>
+        <v>1.0817619999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>996.339000</v>
+        <v>996.33900000000006</v>
       </c>
       <c r="BB5" s="1">
-        <v>-122.115000</v>
+        <v>-122.11499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>3904.931119</v>
+        <v>3904.9311189999999</v>
       </c>
       <c r="BE5" s="1">
         <v>1.084703</v>
       </c>
       <c r="BF5" s="1">
-        <v>1033.790000</v>
+        <v>1033.79</v>
       </c>
       <c r="BG5" s="1">
-        <v>-192.390000</v>
+        <v>-192.39</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>3915.621890</v>
+        <v>3915.6218899999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1.087673</v>
+        <v>1.0876729999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1097.960000</v>
+        <v>1097.96</v>
       </c>
       <c r="BL5" s="1">
-        <v>-307.413000</v>
+        <v>-307.41300000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>3925.725892</v>
+        <v>3925.7258919999999</v>
       </c>
       <c r="BO5" s="1">
         <v>1.090479</v>
       </c>
       <c r="BP5" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.559000</v>
+        <v>-490.55900000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>3936.929525</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.093592</v>
+        <v>1.0935919999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1321.070000</v>
+        <v>1321.07</v>
       </c>
       <c r="BV5" s="1">
-        <v>-692.573000</v>
+        <v>-692.57299999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>3947.605943</v>
@@ -1477,482 +1893,482 @@
         <v>1.096557</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1455.230000</v>
+        <v>1455.23</v>
       </c>
       <c r="CA5" s="1">
-        <v>-908.946000</v>
+        <v>-908.94600000000003</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>3958.883944</v>
+        <v>3958.8839440000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>1.099690</v>
+        <v>1.0996900000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1810.590000</v>
+        <v>1810.59</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1423.220000</v>
+        <v>-1423.22</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>3788.554329</v>
+        <v>3788.5543290000001</v>
       </c>
       <c r="B6" s="1">
         <v>1.052376</v>
       </c>
       <c r="C6" s="1">
-        <v>894.177000</v>
+        <v>894.17700000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.134000</v>
+        <v>-195.13399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>3799.305083</v>
+        <v>3799.3050830000002</v>
       </c>
       <c r="G6" s="1">
-        <v>1.055363</v>
+        <v>1.0553630000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>912.540000</v>
+        <v>912.54</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.006000</v>
+        <v>-166.006</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>3809.808366</v>
+        <v>3809.8083660000002</v>
       </c>
       <c r="L6" s="1">
-        <v>1.058280</v>
+        <v>1.0582800000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>936.838000</v>
+        <v>936.83799999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.695000</v>
+        <v>-118.69499999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>3820.251631</v>
+        <v>3820.2516310000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.061181</v>
+        <v>1.0611809999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>944.062000</v>
+        <v>944.06200000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.742000</v>
+        <v>-102.742</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>3830.789634</v>
+        <v>3830.7896340000002</v>
       </c>
       <c r="V6" s="1">
-        <v>1.064108</v>
+        <v>1.0641080000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>950.999000</v>
+        <v>950.99900000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.853300</v>
+        <v>-87.853300000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>3841.232899</v>
+        <v>3841.2328990000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.067009</v>
+        <v>1.0670090000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.369000</v>
+        <v>958.36900000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.227400</v>
+        <v>-76.227400000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>3852.130998</v>
+        <v>3852.1309980000001</v>
       </c>
       <c r="AF6" s="1">
         <v>1.070036</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.230000</v>
+        <v>963.23</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.043500</v>
+        <v>-74.043499999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3862.695783</v>
+        <v>3862.6957830000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>1.072971</v>
+        <v>1.0729709999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.522000</v>
+        <v>970.52200000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-78.485700</v>
+        <v>-78.485699999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>3873.309674</v>
+        <v>3873.3096740000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.075919</v>
+        <v>1.0759190000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.548000</v>
+        <v>978.548</v>
       </c>
       <c r="AR6" s="1">
-        <v>-89.708200</v>
+        <v>-89.708200000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>3883.936955</v>
+        <v>3883.9369550000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.078871</v>
+        <v>1.0788709999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.257000</v>
+        <v>988.25699999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-106.894000</v>
+        <v>-106.89400000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>3894.702653</v>
+        <v>3894.7026529999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.081862</v>
+        <v>1.0818620000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>996.333000</v>
+        <v>996.33299999999997</v>
       </c>
       <c r="BB6" s="1">
-        <v>-122.092000</v>
+        <v>-122.092</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>3905.294222</v>
       </c>
       <c r="BE6" s="1">
-        <v>1.084804</v>
+        <v>1.0848040000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1033.800000</v>
+        <v>1033.8</v>
       </c>
       <c r="BG6" s="1">
-        <v>-192.386000</v>
+        <v>-192.386</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>3915.996865</v>
+        <v>3915.9968650000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>1.087777</v>
       </c>
       <c r="BK6" s="1">
-        <v>1097.970000</v>
+        <v>1097.97</v>
       </c>
       <c r="BL6" s="1">
-        <v>-307.408000</v>
+        <v>-307.40800000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>3926.540322</v>
+        <v>3926.5403219999998</v>
       </c>
       <c r="BO6" s="1">
         <v>1.090706</v>
       </c>
       <c r="BP6" s="1">
-        <v>1202.540000</v>
+        <v>1202.54</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.570000</v>
+        <v>-490.57</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>3937.343188</v>
+        <v>3937.3431879999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.093706</v>
+        <v>1.0937060000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1321.080000</v>
+        <v>1321.08</v>
       </c>
       <c r="BV6" s="1">
-        <v>-692.526000</v>
+        <v>-692.52599999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>3948.028502</v>
+        <v>3948.0285020000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.096675</v>
+        <v>1.0966750000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1455.230000</v>
+        <v>1455.23</v>
       </c>
       <c r="CA6" s="1">
-        <v>-908.875000</v>
+        <v>-908.875</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>3959.407719</v>
+        <v>3959.4077189999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.099835</v>
+        <v>1.0998349999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1809.290000</v>
+        <v>1809.29</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1422.370000</v>
+        <v>-1422.37</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>3789.225881</v>
+        <v>3789.2258809999998</v>
       </c>
       <c r="B7" s="1">
-        <v>1.052563</v>
+        <v>1.0525629999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>894.049000</v>
+        <v>894.04899999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.203000</v>
+        <v>-195.203</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>3799.668191</v>
+        <v>3799.6681910000002</v>
       </c>
       <c r="G7" s="1">
         <v>1.055463</v>
       </c>
       <c r="H7" s="1">
-        <v>912.648000</v>
+        <v>912.64800000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.966000</v>
+        <v>-165.96600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>3810.149117</v>
+        <v>3810.1491169999999</v>
       </c>
       <c r="L7" s="1">
-        <v>1.058375</v>
+        <v>1.0583750000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>936.855000</v>
+        <v>936.85500000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.663000</v>
+        <v>-118.663</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>3820.600318</v>
+        <v>3820.6003179999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.061278</v>
+        <v>1.0612779999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>944.089000</v>
+        <v>944.08900000000006</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.746000</v>
+        <v>-102.746</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>3831.133392</v>
+        <v>3831.1333920000002</v>
       </c>
       <c r="V7" s="1">
-        <v>1.064204</v>
+        <v>1.0642039999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>951.025000</v>
+        <v>951.02499999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.897400</v>
+        <v>-87.897400000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>3841.732882</v>
+        <v>3841.7328819999998</v>
       </c>
       <c r="AA7" s="1">
         <v>1.067148</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.424000</v>
+        <v>958.42399999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.309900</v>
+        <v>-76.309899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>3852.550117</v>
+        <v>3852.5501169999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.070153</v>
+        <v>1.0701529999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.242000</v>
+        <v>963.24199999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.070400</v>
+        <v>-74.070400000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>3862.975030</v>
+        <v>3862.9750300000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.073049</v>
+        <v>1.0730489999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.510000</v>
+        <v>970.51</v>
       </c>
       <c r="AM7" s="1">
-        <v>-78.505200</v>
+        <v>-78.505200000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>3873.611240</v>
+        <v>3873.6112400000002</v>
       </c>
       <c r="AP7" s="1">
         <v>1.076003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.535000</v>
+        <v>978.53499999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-89.706800</v>
+        <v>-89.706800000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>3884.303498</v>
+        <v>3884.3034980000002</v>
       </c>
       <c r="AU7" s="1">
         <v>1.078973</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.256000</v>
+        <v>988.25599999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-106.899000</v>
+        <v>-106.899</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>3895.063708</v>
+        <v>3895.0637080000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.081962</v>
+        <v>1.0819620000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>996.356000</v>
+        <v>996.35599999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-122.106000</v>
+        <v>-122.10599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>3905.656799</v>
+        <v>3905.6567989999999</v>
       </c>
       <c r="BE7" s="1">
         <v>1.084905</v>
       </c>
       <c r="BF7" s="1">
-        <v>1033.800000</v>
+        <v>1033.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-192.411000</v>
+        <v>-192.411</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>3916.407553</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.087891</v>
+        <v>1.0878909999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1097.950000</v>
+        <v>1097.95</v>
       </c>
       <c r="BL7" s="1">
-        <v>-307.409000</v>
+        <v>-307.40899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>3926.958979</v>
@@ -1961,61 +2377,61 @@
         <v>1.090822</v>
       </c>
       <c r="BP7" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.557000</v>
+        <v>-490.55700000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>3937.757843</v>
+        <v>3937.7578429999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.093822</v>
+        <v>1.0938220000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1321.230000</v>
+        <v>1321.23</v>
       </c>
       <c r="BV7" s="1">
-        <v>-692.452000</v>
+        <v>-692.452</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>3948.454566</v>
+        <v>3948.4545659999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.096793</v>
+        <v>1.0967929999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1455.160000</v>
+        <v>1455.16</v>
       </c>
       <c r="CA7" s="1">
-        <v>-908.858000</v>
+        <v>-908.85799999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>3960.248992</v>
+        <v>3960.2489919999998</v>
       </c>
       <c r="CD7" s="1">
         <v>1.100069</v>
       </c>
       <c r="CE7" s="1">
-        <v>1810.460000</v>
+        <v>1810.46</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1423.070000</v>
+        <v>-1423.07</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>3789.583498</v>
       </c>
@@ -2023,315 +2439,315 @@
         <v>1.052662</v>
       </c>
       <c r="C8" s="1">
-        <v>894.128000</v>
+        <v>894.12800000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.046000</v>
+        <v>-195.04599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>3800.013370</v>
+        <v>3800.0133700000001</v>
       </c>
       <c r="G8" s="1">
-        <v>1.055559</v>
+        <v>1.0555589999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>912.573000</v>
+        <v>912.57299999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.091000</v>
+        <v>-166.09100000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>3810.496812</v>
+        <v>3810.4968119999999</v>
       </c>
       <c r="L8" s="1">
-        <v>1.058471</v>
+        <v>1.0584709999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>936.994000</v>
+        <v>936.99400000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.741000</v>
+        <v>-118.741</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>3820.950494</v>
+        <v>3820.9504940000002</v>
       </c>
       <c r="Q8" s="1">
         <v>1.061375</v>
       </c>
       <c r="R8" s="1">
-        <v>944.115000</v>
+        <v>944.11500000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.738000</v>
+        <v>-102.738</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>3831.553473</v>
+        <v>3831.5534729999999</v>
       </c>
       <c r="V8" s="1">
-        <v>1.064320</v>
+        <v>1.0643199999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>950.998000</v>
+        <v>950.99800000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.910000</v>
+        <v>-87.91</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>3842.277005</v>
+        <v>3842.2770049999999</v>
       </c>
       <c r="AA8" s="1">
         <v>1.067299</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.413000</v>
+        <v>958.41300000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.333100</v>
+        <v>-76.333100000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>3852.844773</v>
+        <v>3852.8447729999998</v>
       </c>
       <c r="AF8" s="1">
         <v>1.070235</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.287000</v>
+        <v>963.28700000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.068900</v>
+        <v>-74.068899999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>3863.325245</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.073146</v>
+        <v>1.0731459999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.506000</v>
+        <v>970.50599999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-78.505400</v>
+        <v>-78.505399999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>3873.975304</v>
+        <v>3873.9753040000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.076104</v>
+        <v>1.0761039999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.555000</v>
+        <v>978.55499999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-89.724700</v>
+        <v>-89.724699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>3884.668555</v>
+        <v>3884.6685550000002</v>
       </c>
       <c r="AU8" s="1">
         <v>1.079075</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.260000</v>
+        <v>988.26</v>
       </c>
       <c r="AW8" s="1">
-        <v>-106.881000</v>
+        <v>-106.881</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>3895.778443</v>
+        <v>3895.7784430000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.082161</v>
+        <v>1.0821609999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>996.338000</v>
+        <v>996.33799999999997</v>
       </c>
       <c r="BB8" s="1">
-        <v>-122.123000</v>
+        <v>-122.123</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>3906.378941</v>
+        <v>3906.3789409999999</v>
       </c>
       <c r="BE8" s="1">
         <v>1.085105</v>
       </c>
       <c r="BF8" s="1">
-        <v>1033.810000</v>
+        <v>1033.81</v>
       </c>
       <c r="BG8" s="1">
-        <v>-192.393000</v>
+        <v>-192.393</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>3916.774096</v>
+        <v>3916.7740960000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>1.087993</v>
       </c>
       <c r="BK8" s="1">
-        <v>1097.940000</v>
+        <v>1097.94</v>
       </c>
       <c r="BL8" s="1">
-        <v>-307.419000</v>
+        <v>-307.41899999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>3927.357266</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.090933</v>
+        <v>1.0909329999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.553000</v>
+        <v>-490.553</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>3938.173987</v>
+        <v>3938.1739870000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>1.093937</v>
+        <v>1.0939369999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1321.390000</v>
+        <v>1321.39</v>
       </c>
       <c r="BV8" s="1">
-        <v>-692.525000</v>
+        <v>-692.52499999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>3949.171318</v>
+        <v>3949.1713180000002</v>
       </c>
       <c r="BY8" s="1">
         <v>1.096992</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1455.120000</v>
+        <v>1455.12</v>
       </c>
       <c r="CA8" s="1">
-        <v>-908.886000</v>
+        <v>-908.88599999999997</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>3960.484039</v>
+        <v>3960.4840389999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.100134</v>
+        <v>1.1001339999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1810.490000</v>
+        <v>1810.49</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1423.040000</v>
+        <v>-1423.04</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>3789.923790</v>
+        <v>3789.9237899999998</v>
       </c>
       <c r="B9" s="1">
-        <v>1.052757</v>
+        <v>1.0527569999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>894.223000</v>
+        <v>894.22299999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.161000</v>
+        <v>-195.161</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>3800.358617</v>
+        <v>3800.3586169999999</v>
       </c>
       <c r="G9" s="1">
         <v>1.055655</v>
       </c>
       <c r="H9" s="1">
-        <v>912.443000</v>
+        <v>912.44299999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.058000</v>
+        <v>-166.05799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>3810.909515</v>
+        <v>3810.9095149999998</v>
       </c>
       <c r="L9" s="1">
         <v>1.058586</v>
       </c>
       <c r="M9" s="1">
-        <v>937.079000</v>
+        <v>937.07899999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.721000</v>
+        <v>-118.721</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>3821.369118</v>
+        <v>3821.3691180000001</v>
       </c>
       <c r="Q9" s="1">
         <v>1.061491</v>
       </c>
       <c r="R9" s="1">
-        <v>944.147000</v>
+        <v>944.14700000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.766000</v>
+        <v>-102.76600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>3831.831729</v>
@@ -2340,118 +2756,118 @@
         <v>1.064398</v>
       </c>
       <c r="W9" s="1">
-        <v>950.966000</v>
+        <v>950.96600000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.875800</v>
+        <v>-87.875799999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>3842.627185</v>
+        <v>3842.6271849999998</v>
       </c>
       <c r="AA9" s="1">
         <v>1.067396</v>
       </c>
       <c r="AB9" s="1">
-        <v>958.433000</v>
+        <v>958.43299999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.270000</v>
+        <v>-76.27</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>3853.188963</v>
+        <v>3853.1889630000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>1.070330</v>
+        <v>1.07033</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.272000</v>
+        <v>963.27200000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.043400</v>
+        <v>-74.043400000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>3863.674228</v>
+        <v>3863.6742279999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.073243</v>
+        <v>1.0732429999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.515000</v>
+        <v>970.51499999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-78.501600</v>
+        <v>-78.501599999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>3874.337880</v>
+        <v>3874.33788</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.076205</v>
+        <v>1.0762050000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.536000</v>
+        <v>978.53599999999994</v>
       </c>
       <c r="AR9" s="1">
-        <v>-89.721600</v>
+        <v>-89.721599999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>3885.395226</v>
+        <v>3885.3952260000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.079276</v>
+        <v>1.0792759999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.243000</v>
+        <v>988.24300000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-106.882000</v>
+        <v>-106.88200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>3896.138044</v>
+        <v>3896.1380439999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.082261</v>
+        <v>1.0822609999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>996.339000</v>
+        <v>996.33900000000006</v>
       </c>
       <c r="BB9" s="1">
-        <v>-122.114000</v>
+        <v>-122.114</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>3906.738541</v>
+        <v>3906.7385410000002</v>
       </c>
       <c r="BE9" s="1">
         <v>1.085205</v>
       </c>
       <c r="BF9" s="1">
-        <v>1033.800000</v>
+        <v>1033.8</v>
       </c>
       <c r="BG9" s="1">
-        <v>-192.384000</v>
+        <v>-192.38399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>3917.145141</v>
@@ -2460,150 +2876,150 @@
         <v>1.088096</v>
       </c>
       <c r="BK9" s="1">
-        <v>1097.950000</v>
+        <v>1097.95</v>
       </c>
       <c r="BL9" s="1">
-        <v>-307.418000</v>
+        <v>-307.41800000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>3928.082385</v>
+        <v>3928.0823850000002</v>
       </c>
       <c r="BO9" s="1">
         <v>1.091134</v>
       </c>
       <c r="BP9" s="1">
-        <v>1202.500000</v>
+        <v>1202.5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.554000</v>
+        <v>-490.55399999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>3938.886771</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.094135</v>
+        <v>1.0941350000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1321.460000</v>
+        <v>1321.46</v>
       </c>
       <c r="BV9" s="1">
-        <v>-692.634000</v>
+        <v>-692.63400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>3949.317142</v>
+        <v>3949.3171419999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.097033</v>
+        <v>1.0970329999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1455.180000</v>
+        <v>1455.18</v>
       </c>
       <c r="CA9" s="1">
-        <v>-908.947000</v>
+        <v>-908.947</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>3961.004877</v>
+        <v>3961.0048769999999</v>
       </c>
       <c r="CD9" s="1">
         <v>1.100279</v>
       </c>
       <c r="CE9" s="1">
-        <v>1809.390000</v>
+        <v>1809.39</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1422.290000</v>
+        <v>-1422.29</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>3790.268012</v>
       </c>
       <c r="B10" s="1">
-        <v>1.052852</v>
+        <v>1.0528519999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>894.172000</v>
+        <v>894.17200000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.157000</v>
+        <v>-195.15700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3800.772282</v>
+        <v>3800.7722819999999</v>
       </c>
       <c r="G10" s="1">
-        <v>1.055770</v>
+        <v>1.0557700000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>912.589000</v>
+        <v>912.58900000000006</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.830000</v>
+        <v>-165.83</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>3811.199675</v>
+        <v>3811.1996749999998</v>
       </c>
       <c r="L10" s="1">
         <v>1.058667</v>
       </c>
       <c r="M10" s="1">
-        <v>936.923000</v>
+        <v>936.923</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.844000</v>
+        <v>-118.84399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>3821.664239</v>
+        <v>3821.6642390000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.061573</v>
+        <v>1.0615730000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>944.115000</v>
+        <v>944.11500000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.799000</v>
+        <v>-102.79900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>3832.174959</v>
+        <v>3832.1749589999999</v>
       </c>
       <c r="V10" s="1">
-        <v>1.064493</v>
+        <v>1.0644929999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>951.030000</v>
+        <v>951.03</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.910900</v>
+        <v>-87.910899999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>3842.975355</v>
@@ -2612,43 +3028,43 @@
         <v>1.067493</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.393000</v>
+        <v>958.39300000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.300300</v>
+        <v>-76.300299999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>3853.522772</v>
+        <v>3853.5227719999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.070423</v>
+        <v>1.0704229999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.290000</v>
+        <v>963.29</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.046600</v>
+        <v>-74.046599999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>3864.372757</v>
+        <v>3864.3727570000001</v>
       </c>
       <c r="AK10" s="1">
         <v>1.073437</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.501000</v>
+        <v>970.50099999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-78.493700</v>
+        <v>-78.493700000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>3875.050135</v>
@@ -2657,13 +3073,13 @@
         <v>1.076403</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.540000</v>
+        <v>978.54</v>
       </c>
       <c r="AR10" s="1">
-        <v>-89.682300</v>
+        <v>-89.682299999999998</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>3885.789025</v>
@@ -2672,73 +3088,73 @@
         <v>1.079386</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.250000</v>
+        <v>988.25</v>
       </c>
       <c r="AW10" s="1">
-        <v>-106.895000</v>
+        <v>-106.895</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>3896.498634</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.082361</v>
+        <v>1.0823609999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>996.347000</v>
+        <v>996.34699999999998</v>
       </c>
       <c r="BB10" s="1">
-        <v>-122.089000</v>
+        <v>-122.089</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>3907.101118</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.085306</v>
+        <v>1.0853060000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1033.800000</v>
+        <v>1033.8</v>
       </c>
       <c r="BG10" s="1">
-        <v>-192.421000</v>
+        <v>-192.42099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>3917.822170</v>
+        <v>3917.8221699999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>1.088284</v>
       </c>
       <c r="BK10" s="1">
-        <v>1097.960000</v>
+        <v>1097.96</v>
       </c>
       <c r="BL10" s="1">
-        <v>-307.422000</v>
+        <v>-307.42200000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>3928.202913</v>
+        <v>3928.2029130000001</v>
       </c>
       <c r="BO10" s="1">
         <v>1.091167</v>
       </c>
       <c r="BP10" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.572000</v>
+        <v>-490.572</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>3939.005283</v>
@@ -2747,28 +3163,28 @@
         <v>1.094168</v>
       </c>
       <c r="BU10" s="1">
-        <v>1321.600000</v>
+        <v>1321.6</v>
       </c>
       <c r="BV10" s="1">
-        <v>-692.687000</v>
+        <v>-692.68700000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>3949.740692</v>
+        <v>3949.7406919999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>1.097150</v>
+        <v>1.0971500000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1455.180000</v>
+        <v>1455.18</v>
       </c>
       <c r="CA10" s="1">
-        <v>-908.865000</v>
+        <v>-908.86500000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>3961.519722</v>
@@ -2777,302 +3193,302 @@
         <v>1.100422</v>
       </c>
       <c r="CE10" s="1">
-        <v>1810.110000</v>
+        <v>1810.11</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1422.470000</v>
+        <v>-1422.47</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>3790.700982</v>
+        <v>3790.7009819999998</v>
       </c>
       <c r="B11" s="1">
         <v>1.052972</v>
       </c>
       <c r="C11" s="1">
-        <v>894.141000</v>
+        <v>894.14099999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.291000</v>
+        <v>-195.291</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>3801.053513</v>
+        <v>3801.0535129999998</v>
       </c>
       <c r="G11" s="1">
-        <v>1.055848</v>
+        <v>1.0558479999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>912.586000</v>
+        <v>912.58600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.040000</v>
+        <v>-166.04</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>3811.543900</v>
+        <v>3811.5439000000001</v>
       </c>
       <c r="L11" s="1">
         <v>1.058762</v>
       </c>
       <c r="M11" s="1">
-        <v>937.002000</v>
+        <v>937.00199999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.682000</v>
+        <v>-118.682</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>3822.011175</v>
+        <v>3822.0111750000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.061670</v>
+        <v>1.0616699999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>944.067000</v>
+        <v>944.06700000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.791000</v>
+        <v>-102.791</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>3832.518223</v>
       </c>
       <c r="V11" s="1">
-        <v>1.064588</v>
+        <v>1.0645880000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>950.984000</v>
+        <v>950.98400000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.825300</v>
+        <v>-87.825299999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>3843.671728</v>
+        <v>3843.6717279999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.067687</v>
+        <v>1.0676870000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.468000</v>
+        <v>958.46799999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.287700</v>
+        <v>-76.287700000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>3854.220146</v>
+        <v>3854.2201460000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.070617</v>
+        <v>1.0706169999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.272000</v>
+        <v>963.27200000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.026900</v>
+        <v>-74.026899999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>3864.721940</v>
+        <v>3864.7219399999999</v>
       </c>
       <c r="AK11" s="1">
         <v>1.073534</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.507000</v>
+        <v>970.50699999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-78.502400</v>
+        <v>-78.502399999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>3875.437511</v>
+        <v>3875.4375110000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.076510</v>
+        <v>1.0765100000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.550000</v>
+        <v>978.55</v>
       </c>
       <c r="AR11" s="1">
-        <v>-89.708900</v>
+        <v>-89.7089</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>3886.152584</v>
+        <v>3886.1525839999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.079487</v>
+        <v>1.0794870000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.256000</v>
+        <v>988.25599999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-106.893000</v>
+        <v>-106.893</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>3897.161291</v>
+        <v>3897.1612909999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.082545</v>
+        <v>1.0825450000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>996.358000</v>
+        <v>996.35799999999995</v>
       </c>
       <c r="BB11" s="1">
-        <v>-122.122000</v>
+        <v>-122.122</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>3907.803525</v>
+        <v>3907.8035249999998</v>
       </c>
       <c r="BE11" s="1">
         <v>1.085501</v>
       </c>
       <c r="BF11" s="1">
-        <v>1033.810000</v>
+        <v>1033.81</v>
       </c>
       <c r="BG11" s="1">
-        <v>-192.400000</v>
+        <v>-192.4</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>3917.934238</v>
+        <v>3917.9342379999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.088315</v>
+        <v>1.0883149999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1097.960000</v>
+        <v>1097.96</v>
       </c>
       <c r="BL11" s="1">
-        <v>-307.423000</v>
+        <v>-307.423</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>3928.597265</v>
+        <v>3928.5972649999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.091277</v>
+        <v>1.0912770000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.572000</v>
+        <v>-490.572</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>3939.442753</v>
+        <v>3939.4427529999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>1.094290</v>
+        <v>1.09429</v>
       </c>
       <c r="BU11" s="1">
-        <v>1321.530000</v>
+        <v>1321.53</v>
       </c>
       <c r="BV11" s="1">
-        <v>-692.880000</v>
+        <v>-692.88</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>3950.163283</v>
+        <v>3950.1632829999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>1.097268</v>
+        <v>1.0972679999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1455.060000</v>
+        <v>1455.06</v>
       </c>
       <c r="CA11" s="1">
-        <v>-908.925000</v>
+        <v>-908.92499999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>3962.070783</v>
+        <v>3962.0707830000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.100575</v>
+        <v>1.1005750000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1810.560000</v>
+        <v>1810.56</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1423.440000</v>
+        <v>-1423.44</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>3790.981255</v>
+        <v>3790.9812550000001</v>
       </c>
       <c r="B12" s="1">
-        <v>1.053050</v>
+        <v>1.05305</v>
       </c>
       <c r="C12" s="1">
-        <v>894.115000</v>
+        <v>894.11500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.260000</v>
+        <v>-195.26</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>3801.398728</v>
+        <v>3801.3987280000001</v>
       </c>
       <c r="G12" s="1">
         <v>1.055944</v>
       </c>
       <c r="H12" s="1">
-        <v>912.525000</v>
+        <v>912.52499999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.147000</v>
+        <v>-166.14699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>3811.892554</v>
@@ -3081,226 +3497,226 @@
         <v>1.058859</v>
       </c>
       <c r="M12" s="1">
-        <v>936.891000</v>
+        <v>936.89099999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.810000</v>
+        <v>-118.81</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>3822.361117</v>
+        <v>3822.3611169999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.061767</v>
+        <v>1.0617669999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>944.052000</v>
+        <v>944.05200000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.753000</v>
+        <v>-102.753</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>3833.207662</v>
+        <v>3833.2076619999998</v>
       </c>
       <c r="V12" s="1">
-        <v>1.064780</v>
+        <v>1.0647800000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>950.990000</v>
+        <v>950.99</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.906200</v>
+        <v>-87.906199999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>3844.019921</v>
+        <v>3844.0199210000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.067783</v>
+        <v>1.0677829999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.406000</v>
+        <v>958.40599999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.258100</v>
+        <v>-76.258099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>3854.552011</v>
+        <v>3854.5520110000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.070709</v>
+        <v>1.0707089999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.282000</v>
+        <v>963.28200000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.031000</v>
+        <v>-74.031000000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>3865.068148</v>
+        <v>3865.0681479999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.073630</v>
+        <v>1.0736300000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.504000</v>
+        <v>970.50400000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-78.517900</v>
+        <v>-78.517899999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>3876.117030</v>
+        <v>3876.1170299999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.076699</v>
+        <v>1.0766990000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.548000</v>
+        <v>978.548</v>
       </c>
       <c r="AR12" s="1">
-        <v>-89.694600</v>
+        <v>-89.694599999999994</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>3886.828664</v>
+        <v>3886.8286640000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.079675</v>
+        <v>1.0796749999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.252000</v>
+        <v>988.25199999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-106.897000</v>
+        <v>-106.89700000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>3897.606698</v>
+        <v>3897.6066980000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.082669</v>
+        <v>1.0826690000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>996.327000</v>
+        <v>996.327</v>
       </c>
       <c r="BB12" s="1">
-        <v>-122.099000</v>
+        <v>-122.099</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>3908.204219</v>
+        <v>3908.2042190000002</v>
       </c>
       <c r="BE12" s="1">
         <v>1.085612</v>
       </c>
       <c r="BF12" s="1">
-        <v>1033.820000</v>
+        <v>1033.82</v>
       </c>
       <c r="BG12" s="1">
-        <v>-192.408000</v>
+        <v>-192.40799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>3918.298302</v>
+        <v>3918.2983020000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.088416</v>
+        <v>1.0884160000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1097.950000</v>
+        <v>1097.95</v>
       </c>
       <c r="BL12" s="1">
-        <v>-307.409000</v>
+        <v>-307.40899999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>3929.021311</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.091395</v>
+        <v>1.0913949999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1202.570000</v>
+        <v>1202.57</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.583000</v>
+        <v>-490.58300000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>3939.856419</v>
+        <v>3939.8564190000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>1.094405</v>
+        <v>1.0944050000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1321.460000</v>
+        <v>1321.46</v>
       </c>
       <c r="BV12" s="1">
-        <v>-693.014000</v>
+        <v>-693.01400000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>3950.582403</v>
+        <v>3950.5824029999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.097384</v>
+        <v>1.0973839999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1455.170000</v>
+        <v>1455.17</v>
       </c>
       <c r="CA12" s="1">
-        <v>-908.959000</v>
+        <v>-908.95899999999995</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>3962.601987</v>
       </c>
       <c r="CD12" s="1">
-        <v>1.100723</v>
+        <v>1.1007229999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1810.050000</v>
+        <v>1810.05</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1422.290000</v>
+        <v>-1422.29</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>3791.436549</v>
       </c>
@@ -3308,58 +3724,58 @@
         <v>1.053177</v>
       </c>
       <c r="C13" s="1">
-        <v>894.093000</v>
+        <v>894.09299999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.191000</v>
+        <v>-195.191</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>3801.741431</v>
+        <v>3801.7414309999999</v>
       </c>
       <c r="G13" s="1">
-        <v>1.056039</v>
+        <v>1.0560389999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>912.478000</v>
+        <v>912.47799999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.086000</v>
+        <v>-166.08600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>3812.584970</v>
+        <v>3812.5849699999999</v>
       </c>
       <c r="L13" s="1">
         <v>1.059051</v>
       </c>
       <c r="M13" s="1">
-        <v>936.823000</v>
+        <v>936.82299999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.773000</v>
+        <v>-118.773</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>3823.056013</v>
+        <v>3823.0560129999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.061960</v>
+        <v>1.06196</v>
       </c>
       <c r="R13" s="1">
-        <v>944.127000</v>
+        <v>944.12699999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.736000</v>
+        <v>-102.736</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>3833.550894</v>
@@ -3368,43 +3784,43 @@
         <v>1.064875</v>
       </c>
       <c r="W13" s="1">
-        <v>950.971000</v>
+        <v>950.971</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.875800</v>
+        <v>-87.875799999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>3844.366623</v>
+        <v>3844.3666229999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.067880</v>
+        <v>1.0678799999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.326000</v>
+        <v>958.32600000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.283000</v>
+        <v>-76.283000000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>3854.907601</v>
+        <v>3854.9076009999999</v>
       </c>
       <c r="AF13" s="1">
         <v>1.070808</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.249000</v>
+        <v>963.24900000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.029400</v>
+        <v>-74.029399999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>3865.735764</v>
@@ -3413,285 +3829,285 @@
         <v>1.073815</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.506000</v>
+        <v>970.50599999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-78.527300</v>
+        <v>-78.527299999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>3876.537637</v>
+        <v>3876.5376369999999</v>
       </c>
       <c r="AP13" s="1">
         <v>1.076816</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.545000</v>
+        <v>978.54499999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-89.724500</v>
+        <v>-89.724500000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>3887.280984</v>
       </c>
       <c r="AU13" s="1">
-        <v>1.079800</v>
+        <v>1.0798000000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.231000</v>
+        <v>988.23099999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-106.892000</v>
+        <v>-106.892</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>3897.965337</v>
+        <v>3897.9653370000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>1.082768</v>
       </c>
       <c r="BA13" s="1">
-        <v>996.336000</v>
+        <v>996.33600000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-122.118000</v>
+        <v>-122.11799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>3908.565803</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.085713</v>
+        <v>1.0857129999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1033.790000</v>
+        <v>1033.79</v>
       </c>
       <c r="BG13" s="1">
-        <v>-192.412000</v>
+        <v>-192.41200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>3918.672781</v>
+        <v>3918.6727810000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.088520</v>
+        <v>1.0885199999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1097.970000</v>
+        <v>1097.97</v>
       </c>
       <c r="BL13" s="1">
-        <v>-307.426000</v>
+        <v>-307.42599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>3929.429520</v>
+        <v>3929.4295200000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.091508</v>
+        <v>1.0915079999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1202.540000</v>
+        <v>1202.54</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.567000</v>
+        <v>-490.56700000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>3940.274050</v>
+        <v>3940.27405</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.094521</v>
+        <v>1.0945210000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1321.420000</v>
+        <v>1321.42</v>
       </c>
       <c r="BV13" s="1">
-        <v>-693.039000</v>
+        <v>-693.03899999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>3951.027838</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.097508</v>
+        <v>1.0975079999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1455.250000</v>
+        <v>1455.25</v>
       </c>
       <c r="CA13" s="1">
-        <v>-908.874000</v>
+        <v>-908.87400000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>3963.120287</v>
+        <v>3963.1202870000002</v>
       </c>
       <c r="CD13" s="1">
         <v>1.100867</v>
       </c>
       <c r="CE13" s="1">
-        <v>1809.060000</v>
+        <v>1809.06</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1423.520000</v>
+        <v>-1423.52</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>3792.006484</v>
       </c>
       <c r="B14" s="1">
-        <v>1.053335</v>
+        <v>1.0533349999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>894.123000</v>
+        <v>894.12300000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.094000</v>
+        <v>-195.09399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>3802.429565</v>
+        <v>3802.4295649999999</v>
       </c>
       <c r="G14" s="1">
-        <v>1.056230</v>
+        <v>1.05623</v>
       </c>
       <c r="H14" s="1">
-        <v>912.543000</v>
+        <v>912.54300000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.046000</v>
+        <v>-166.04599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>3812.930216</v>
+        <v>3812.9302160000002</v>
       </c>
       <c r="L14" s="1">
-        <v>1.059147</v>
+        <v>1.0591470000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>936.948000</v>
+        <v>936.94799999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.700000</v>
+        <v>-118.7</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>3823.408669</v>
+        <v>3823.4086689999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.062058</v>
+        <v>1.0620579999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>944.099000</v>
+        <v>944.09900000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.725000</v>
+        <v>-102.72499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>3833.895581</v>
+        <v>3833.8955810000002</v>
       </c>
       <c r="V14" s="1">
-        <v>1.064971</v>
+        <v>1.0649709999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>951.059000</v>
+        <v>951.05899999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.971500</v>
+        <v>-87.971500000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>3845.020382</v>
+        <v>3845.0203820000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.068061</v>
+        <v>1.0680609999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.381000</v>
+        <v>958.38099999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.437100</v>
+        <v>-76.437100000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>3855.555874</v>
+        <v>3855.5558740000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>1.070988</v>
+        <v>1.0709880000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.261000</v>
+        <v>963.26099999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.067600</v>
+        <v>-74.067599999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>3866.112765</v>
+        <v>3866.1127649999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.073920</v>
+        <v>1.07392</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.475000</v>
+        <v>970.47500000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-78.516000</v>
+        <v>-78.516000000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>3876.896245</v>
+        <v>3876.8962449999999</v>
       </c>
       <c r="AP14" s="1">
         <v>1.076916</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.544000</v>
+        <v>978.54399999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-89.702000</v>
+        <v>-89.701999999999998</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>3887.645078</v>
@@ -3700,58 +4116,58 @@
         <v>1.079901</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.242000</v>
+        <v>988.24199999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-106.885000</v>
+        <v>-106.88500000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>3898.324942</v>
+        <v>3898.3249420000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.082868</v>
+        <v>1.0828679999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>996.329000</v>
+        <v>996.32899999999995</v>
       </c>
       <c r="BB14" s="1">
-        <v>-122.105000</v>
+        <v>-122.105</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>3909.131771</v>
+        <v>3909.1317709999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.085870</v>
+        <v>1.0858699999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1033.810000</v>
+        <v>1033.81</v>
       </c>
       <c r="BG14" s="1">
-        <v>-192.387000</v>
+        <v>-192.387</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>3919.098381</v>
+        <v>3919.0983809999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>1.088638</v>
       </c>
       <c r="BK14" s="1">
-        <v>1097.960000</v>
+        <v>1097.96</v>
       </c>
       <c r="BL14" s="1">
-        <v>-307.455000</v>
+        <v>-307.45499999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>3929.842686</v>
@@ -3760,180 +4176,180 @@
         <v>1.091623</v>
       </c>
       <c r="BP14" s="1">
-        <v>1202.540000</v>
+        <v>1202.54</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.583000</v>
+        <v>-490.58300000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>3940.710528</v>
+        <v>3940.7105280000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.094642</v>
+        <v>1.0946419999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1321.220000</v>
+        <v>1321.22</v>
       </c>
       <c r="BV14" s="1">
-        <v>-693.083000</v>
+        <v>-693.08299999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>3951.450899</v>
+        <v>3951.4508989999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.097625</v>
+        <v>1.0976250000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1455.210000</v>
+        <v>1455.21</v>
       </c>
       <c r="CA14" s="1">
-        <v>-908.909000</v>
+        <v>-908.90899999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>3963.662930</v>
+        <v>3963.66293</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.101017</v>
+        <v>1.1010169999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1810.560000</v>
+        <v>1810.56</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1423.250000</v>
+        <v>-1423.25</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>3792.367540</v>
+        <v>3792.3675400000002</v>
       </c>
       <c r="B15" s="1">
-        <v>1.053435</v>
+        <v>1.0534349999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>894.159000</v>
+        <v>894.15899999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.284000</v>
+        <v>-195.28399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>3802.775126</v>
       </c>
       <c r="G15" s="1">
-        <v>1.056326</v>
+        <v>1.0563260000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>912.689000</v>
+        <v>912.68899999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.218000</v>
+        <v>-166.21799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>3813.272955</v>
+        <v>3813.2729549999999</v>
       </c>
       <c r="L15" s="1">
         <v>1.059242</v>
       </c>
       <c r="M15" s="1">
-        <v>936.994000</v>
+        <v>936.99400000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.664000</v>
+        <v>-118.664</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>3823.755372</v>
+        <v>3823.7553720000001</v>
       </c>
       <c r="Q15" s="1">
         <v>1.062154</v>
       </c>
       <c r="R15" s="1">
-        <v>944.098000</v>
+        <v>944.09799999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>3834.554764</v>
       </c>
       <c r="V15" s="1">
-        <v>1.065154</v>
+        <v>1.0651539999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>950.973000</v>
+        <v>950.97299999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.901400</v>
+        <v>-87.901399999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>3845.413713</v>
+        <v>3845.4137129999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.068170</v>
+        <v>1.0681700000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.333000</v>
+        <v>958.33299999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.243900</v>
+        <v>-76.243899999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>3855.939280</v>
+        <v>3855.9392800000001</v>
       </c>
       <c r="AF15" s="1">
         <v>1.071094</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.313000</v>
+        <v>963.31299999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.053500</v>
+        <v>-74.0535</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>3866.462898</v>
+        <v>3866.4628980000002</v>
       </c>
       <c r="AK15" s="1">
         <v>1.074017</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.492000</v>
+        <v>970.49199999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-78.497600</v>
+        <v>-78.497600000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>3877.257333</v>
@@ -3942,118 +4358,118 @@
         <v>1.077016</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.524000</v>
+        <v>978.524</v>
       </c>
       <c r="AR15" s="1">
-        <v>-89.698800</v>
+        <v>-89.698800000000006</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>3888.008119</v>
+        <v>3888.0081190000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>1.080002</v>
+        <v>1.0800019999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.271000</v>
+        <v>988.27099999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-106.878000</v>
+        <v>-106.878</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>3898.742535</v>
+        <v>3898.7425349999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.082984</v>
+        <v>1.0829839999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>996.322000</v>
+        <v>996.322</v>
       </c>
       <c r="BB15" s="1">
-        <v>-122.111000</v>
+        <v>-122.111</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>3909.287979</v>
+        <v>3909.2879790000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.085913</v>
+        <v>1.0859129999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1033.800000</v>
+        <v>1033.8</v>
       </c>
       <c r="BG15" s="1">
-        <v>-192.384000</v>
+        <v>-192.38399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>3919.422236</v>
+        <v>3919.4222359999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.088728</v>
+        <v>1.0887279999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1097.960000</v>
+        <v>1097.96</v>
       </c>
       <c r="BL15" s="1">
-        <v>-307.420000</v>
+        <v>-307.42</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>3930.240479</v>
+        <v>3930.2404790000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.091733</v>
+        <v>1.0917330000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1202.530000</v>
+        <v>1202.53</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.577000</v>
+        <v>-490.577</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>3941.140063</v>
+        <v>3941.1400629999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>1.094761</v>
+        <v>1.0947610000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1321.100000</v>
+        <v>1321.1</v>
       </c>
       <c r="BV15" s="1">
-        <v>-693.053000</v>
+        <v>-693.053</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>3951.874978</v>
+        <v>3951.8749779999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>1.097743</v>
+        <v>1.0977429999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1455.190000</v>
+        <v>1455.19</v>
       </c>
       <c r="CA15" s="1">
-        <v>-908.917000</v>
+        <v>-908.91700000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>3964.200562</v>
@@ -4062,302 +4478,302 @@
         <v>1.101167</v>
       </c>
       <c r="CE15" s="1">
-        <v>1809.280000</v>
+        <v>1809.28</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1422.370000</v>
+        <v>-1422.37</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>3792.710276</v>
+        <v>3792.7102759999998</v>
       </c>
       <c r="B16" s="1">
         <v>1.053531</v>
       </c>
       <c r="C16" s="1">
-        <v>894.065000</v>
+        <v>894.06500000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.126000</v>
+        <v>-195.126</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>3803.119350</v>
+        <v>3803.1193499999999</v>
       </c>
       <c r="G16" s="1">
         <v>1.056422</v>
       </c>
       <c r="H16" s="1">
-        <v>912.693000</v>
+        <v>912.69299999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.194000</v>
+        <v>-166.19399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>3813.926151</v>
+        <v>3813.9261510000001</v>
       </c>
       <c r="L16" s="1">
-        <v>1.059424</v>
+        <v>1.0594239999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>936.982000</v>
+        <v>936.98199999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.715000</v>
+        <v>-118.715</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>3824.411082</v>
+        <v>3824.4110820000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.062336</v>
+        <v>1.0623359999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>944.080000</v>
+        <v>944.08</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.759000</v>
+        <v>-102.759</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>3834.929741</v>
+        <v>3834.9297409999999</v>
       </c>
       <c r="V16" s="1">
         <v>1.065258</v>
       </c>
       <c r="W16" s="1">
-        <v>951.003000</v>
+        <v>951.00300000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.872300</v>
+        <v>-87.872299999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>3845.753438</v>
+        <v>3845.7534380000002</v>
       </c>
       <c r="AA16" s="1">
         <v>1.068265</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.431000</v>
+        <v>958.43100000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.298900</v>
+        <v>-76.298900000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>3856.279537</v>
+        <v>3856.2795369999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>1.071189</v>
+        <v>1.0711889999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.290000</v>
+        <v>963.29</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.054800</v>
+        <v>-74.0548</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>3866.813075</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.074115</v>
+        <v>1.0741149999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.497000</v>
+        <v>970.49699999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-78.487900</v>
+        <v>-78.487899999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>3877.678931</v>
+        <v>3877.6789309999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>1.077133</v>
+        <v>1.0771329999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.543000</v>
+        <v>978.54300000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-89.707300</v>
+        <v>-89.707300000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>3888.424795</v>
+        <v>3888.4247949999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.080118</v>
+        <v>1.0801179999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.262000</v>
+        <v>988.26199999999994</v>
       </c>
       <c r="AW16" s="1">
-        <v>-106.889000</v>
+        <v>-106.889</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>3899.042650</v>
+        <v>3899.0426499999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>1.083067</v>
       </c>
       <c r="BA16" s="1">
-        <v>996.332000</v>
+        <v>996.33199999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-122.122000</v>
+        <v>-122.122</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>3909.652554</v>
+        <v>3909.6525539999998</v>
       </c>
       <c r="BE16" s="1">
         <v>1.086015</v>
       </c>
       <c r="BF16" s="1">
-        <v>1033.780000</v>
+        <v>1033.78</v>
       </c>
       <c r="BG16" s="1">
-        <v>-192.394000</v>
+        <v>-192.39400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>3919.808620</v>
+        <v>3919.8086199999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.088836</v>
+        <v>1.0888359999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1097.950000</v>
+        <v>1097.95</v>
       </c>
       <c r="BL16" s="1">
-        <v>-307.424000</v>
+        <v>-307.42399999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>3930.659597</v>
+        <v>3930.6595969999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.091850</v>
+        <v>1.09185</v>
       </c>
       <c r="BP16" s="1">
-        <v>1202.560000</v>
+        <v>1202.56</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.607000</v>
+        <v>-490.60700000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>3941.856302</v>
+        <v>3941.8563020000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.094960</v>
+        <v>1.0949599999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1321.070000</v>
+        <v>1321.07</v>
       </c>
       <c r="BV16" s="1">
-        <v>-692.881000</v>
+        <v>-692.88099999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>3952.319431</v>
+        <v>3952.3194309999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.097867</v>
+        <v>1.0978669999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1455.140000</v>
+        <v>1455.14</v>
       </c>
       <c r="CA16" s="1">
-        <v>-908.911000</v>
+        <v>-908.91099999999994</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>3964.741696</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.101317</v>
+        <v>1.1013170000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1809.360000</v>
+        <v>1809.36</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1424.150000</v>
+        <v>-1424.15</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>3793.367972</v>
       </c>
       <c r="B17" s="1">
-        <v>1.053713</v>
+        <v>1.0537129999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>894.285000</v>
+        <v>894.28499999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.150000</v>
+        <v>-195.15</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>3803.776549</v>
+        <v>3803.7765490000002</v>
       </c>
       <c r="G17" s="1">
         <v>1.056605</v>
       </c>
       <c r="H17" s="1">
-        <v>912.577000</v>
+        <v>912.577</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.253000</v>
+        <v>-166.25299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>3814.312543</v>
@@ -4366,193 +4782,193 @@
         <v>1.059531</v>
       </c>
       <c r="M17" s="1">
-        <v>937.021000</v>
+        <v>937.02099999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.810000</v>
+        <v>-118.81</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>3824.799947</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.062444</v>
+        <v>1.0624439999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>944.058000</v>
+        <v>944.05799999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>3835.278429</v>
       </c>
       <c r="V17" s="1">
-        <v>1.065355</v>
+        <v>1.0653550000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>951.072000</v>
+        <v>951.072</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.914000</v>
+        <v>-87.914000000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>3846.112072</v>
+        <v>3846.1120719999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.068364</v>
+        <v>1.0683640000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.369000</v>
+        <v>958.36900000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.307000</v>
+        <v>-76.307000000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>3856.623760</v>
+        <v>3856.6237599999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.071284</v>
+        <v>1.0712839999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.257000</v>
+        <v>963.25699999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.045900</v>
+        <v>-74.045900000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>3867.241122</v>
+        <v>3867.2411219999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.074234</v>
+        <v>1.0742339999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.521000</v>
+        <v>970.52099999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-78.507500</v>
+        <v>-78.507499999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>3877.977059</v>
+        <v>3877.9770589999998</v>
       </c>
       <c r="AP17" s="1">
         <v>1.077216</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.539000</v>
+        <v>978.53899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-89.712900</v>
+        <v>-89.712900000000005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>3888.737732</v>
+        <v>3888.7377320000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>1.080205</v>
+        <v>1.0802050000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.235000</v>
+        <v>988.23500000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-106.903000</v>
+        <v>-106.90300000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>3899.397782</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.083166</v>
+        <v>1.0831660000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>996.326000</v>
+        <v>996.32600000000002</v>
       </c>
       <c r="BB17" s="1">
-        <v>-122.110000</v>
+        <v>-122.11</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>3910.011144</v>
+        <v>3910.0111440000001</v>
       </c>
       <c r="BE17" s="1">
         <v>1.086114</v>
       </c>
       <c r="BF17" s="1">
-        <v>1033.810000</v>
+        <v>1033.81</v>
       </c>
       <c r="BG17" s="1">
-        <v>-192.406000</v>
+        <v>-192.40600000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>3920.194044</v>
+        <v>3920.1940439999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>1.088943</v>
       </c>
       <c r="BK17" s="1">
-        <v>1097.970000</v>
+        <v>1097.97</v>
       </c>
       <c r="BL17" s="1">
-        <v>-307.443000</v>
+        <v>-307.44299999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>3931.475020</v>
+        <v>3931.4750199999999</v>
       </c>
       <c r="BO17" s="1">
         <v>1.092076</v>
       </c>
       <c r="BP17" s="1">
-        <v>1202.530000</v>
+        <v>1202.53</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.559000</v>
+        <v>-490.55900000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>3941.981280</v>
+        <v>3941.98128</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.094995</v>
+        <v>1.0949949999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1320.960000</v>
+        <v>1320.96</v>
       </c>
       <c r="BV17" s="1">
-        <v>-692.799000</v>
+        <v>-692.79899999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>3952.753393</v>
@@ -4561,921 +4977,921 @@
         <v>1.097987</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1455.230000</v>
+        <v>1455.23</v>
       </c>
       <c r="CA17" s="1">
-        <v>-908.816000</v>
+        <v>-908.81600000000003</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>3965.281343</v>
+        <v>3965.2813430000001</v>
       </c>
       <c r="CD17" s="1">
         <v>1.101467</v>
       </c>
       <c r="CE17" s="1">
-        <v>1810.330000</v>
+        <v>1810.33</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1422.350000</v>
+        <v>-1422.35</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>3793.736498</v>
+        <v>3793.7364980000002</v>
       </c>
       <c r="B18" s="1">
-        <v>1.053816</v>
+        <v>1.0538160000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>894.187000</v>
+        <v>894.18700000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.209000</v>
+        <v>-195.209</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>3804.155956</v>
+        <v>3804.1559560000001</v>
       </c>
       <c r="G18" s="1">
-        <v>1.056710</v>
+        <v>1.05671</v>
       </c>
       <c r="H18" s="1">
-        <v>912.452000</v>
+        <v>912.452</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.862000</v>
+        <v>-165.86199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>3814.659735</v>
+        <v>3814.6597350000002</v>
       </c>
       <c r="L18" s="1">
         <v>1.059628</v>
       </c>
       <c r="M18" s="1">
-        <v>937.007000</v>
+        <v>937.00699999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.724000</v>
+        <v>-118.724</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>3825.148633</v>
+        <v>3825.1486329999998</v>
       </c>
       <c r="Q18" s="1">
         <v>1.062541</v>
       </c>
       <c r="R18" s="1">
-        <v>944.099000</v>
+        <v>944.09900000000005</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.753000</v>
+        <v>-102.753</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>3835.621690</v>
+        <v>3835.6216899999999</v>
       </c>
       <c r="V18" s="1">
-        <v>1.065450</v>
+        <v>1.06545</v>
       </c>
       <c r="W18" s="1">
-        <v>950.975000</v>
+        <v>950.97500000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.917700</v>
+        <v>-87.917699999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>3846.537614</v>
+        <v>3846.5376139999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.068483</v>
+        <v>1.0684830000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.547000</v>
+        <v>958.54700000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.222500</v>
+        <v>-76.222499999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>3857.046846</v>
+        <v>3857.0468460000002</v>
       </c>
       <c r="AF18" s="1">
         <v>1.071402</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.276000</v>
+        <v>963.27599999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.045000</v>
+        <v>-74.045000000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>3867.521392</v>
+        <v>3867.5213920000001</v>
       </c>
       <c r="AK18" s="1">
         <v>1.074311</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.506000</v>
+        <v>970.50599999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-78.530300</v>
+        <v>-78.530299999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>3878.340631</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.077317</v>
+        <v>1.0773170000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.548000</v>
+        <v>978.548</v>
       </c>
       <c r="AR18" s="1">
-        <v>-89.723500</v>
+        <v>-89.723500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>3889.101830</v>
+        <v>3889.1018300000001</v>
       </c>
       <c r="AU18" s="1">
         <v>1.080306</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.237000</v>
+        <v>988.23699999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-106.895000</v>
+        <v>-106.895</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>3899.757382</v>
+        <v>3899.7573819999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.083266</v>
+        <v>1.0832660000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>996.357000</v>
+        <v>996.35699999999997</v>
       </c>
       <c r="BB18" s="1">
-        <v>-122.119000</v>
+        <v>-122.119</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>3910.735799</v>
       </c>
       <c r="BE18" s="1">
-        <v>1.086315</v>
+        <v>1.0863149999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1033.820000</v>
+        <v>1033.82</v>
       </c>
       <c r="BG18" s="1">
-        <v>-192.398000</v>
+        <v>-192.398</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>3920.943962</v>
+        <v>3920.9439619999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>1.089151</v>
       </c>
       <c r="BK18" s="1">
-        <v>1097.940000</v>
+        <v>1097.94</v>
       </c>
       <c r="BL18" s="1">
-        <v>-307.422000</v>
+        <v>-307.42200000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>3931.892652</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.092192</v>
+        <v>1.0921920000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1202.560000</v>
+        <v>1202.56</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.581000</v>
+        <v>-490.58100000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>3942.418750</v>
+        <v>3942.4187499999998</v>
       </c>
       <c r="BT18" s="1">
         <v>1.095116</v>
       </c>
       <c r="BU18" s="1">
-        <v>1321.030000</v>
+        <v>1321.03</v>
       </c>
       <c r="BV18" s="1">
-        <v>-692.693000</v>
+        <v>-692.69299999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>3953.210207</v>
+        <v>3953.2102070000001</v>
       </c>
       <c r="BY18" s="1">
         <v>1.098114</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1455.290000</v>
+        <v>1455.29</v>
       </c>
       <c r="CA18" s="1">
-        <v>-908.879000</v>
+        <v>-908.87900000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>3966.131488</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.101703</v>
+        <v>1.1017030000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1810.140000</v>
+        <v>1810.14</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1423.960000</v>
+        <v>-1423.96</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>3794.081218</v>
+        <v>3794.0812179999998</v>
       </c>
       <c r="B19" s="1">
         <v>1.053911</v>
       </c>
       <c r="C19" s="1">
-        <v>894.178000</v>
+        <v>894.178</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.164000</v>
+        <v>-195.16399999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>3804.500180</v>
+        <v>3804.50018</v>
       </c>
       <c r="G19" s="1">
-        <v>1.056806</v>
+        <v>1.0568059999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>912.593000</v>
+        <v>912.59299999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.120000</v>
+        <v>-166.12</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>3815.006438</v>
+        <v>3815.0064379999999</v>
       </c>
       <c r="L19" s="1">
-        <v>1.059724</v>
+        <v>1.0597240000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>937.138000</v>
+        <v>937.13800000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.859000</v>
+        <v>-118.85899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>3825.717544</v>
+        <v>3825.7175440000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.062699</v>
+        <v>1.0626990000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>944.111000</v>
+        <v>944.11099999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.761000</v>
+        <v>-102.761</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>3836.039818</v>
+        <v>3836.0398180000002</v>
       </c>
       <c r="V19" s="1">
-        <v>1.065567</v>
+        <v>1.0655669999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>950.999000</v>
+        <v>950.99900000000002</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.851300</v>
+        <v>-87.851299999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>3846.816892</v>
+        <v>3846.8168919999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.068560</v>
+        <v>1.06856</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.395000</v>
+        <v>958.39499999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.340300</v>
+        <v>-76.340299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>3857.335518</v>
+        <v>3857.3355179999999</v>
       </c>
       <c r="AF19" s="1">
         <v>1.071482</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.288000</v>
+        <v>963.28800000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.078500</v>
+        <v>-74.078500000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>3867.868593</v>
+        <v>3867.8685930000001</v>
       </c>
       <c r="AK19" s="1">
         <v>1.074408</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.514000</v>
+        <v>970.51400000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-78.493300</v>
+        <v>-78.493300000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>3878.701187</v>
+        <v>3878.7011870000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.077417</v>
+        <v>1.0774170000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.541000</v>
+        <v>978.54100000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-89.718800</v>
+        <v>-89.718800000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>3889.466852</v>
       </c>
       <c r="AU19" s="1">
-        <v>1.080407</v>
+        <v>1.0804069999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.257000</v>
+        <v>988.25699999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-106.896000</v>
+        <v>-106.896</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>3900.475559</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.083465</v>
+        <v>1.0834649999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>996.343000</v>
+        <v>996.34299999999996</v>
       </c>
       <c r="BB19" s="1">
-        <v>-122.110000</v>
+        <v>-122.11</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>3911.124167</v>
+        <v>3911.1241669999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.086423</v>
+        <v>1.0864229999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1033.810000</v>
+        <v>1033.81</v>
       </c>
       <c r="BG19" s="1">
-        <v>-192.402000</v>
+        <v>-192.40199999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>3921.347739</v>
+        <v>3921.3477389999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.089263</v>
+        <v>1.0892630000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1097.960000</v>
+        <v>1097.96</v>
       </c>
       <c r="BL19" s="1">
-        <v>-307.435000</v>
+        <v>-307.435</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>3932.288987</v>
+        <v>3932.2889869999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.092302</v>
+        <v>1.0923020000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1202.560000</v>
+        <v>1202.56</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.603000</v>
+        <v>-490.60300000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>3943.149855</v>
+        <v>3943.1498550000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.095319</v>
+        <v>1.0953189999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1321.080000</v>
+        <v>1321.08</v>
       </c>
       <c r="BV19" s="1">
-        <v>-692.610000</v>
+        <v>-692.61</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>3953.961151</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.098323</v>
+        <v>1.0983229999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1455.160000</v>
+        <v>1455.16</v>
       </c>
       <c r="CA19" s="1">
-        <v>-908.935000</v>
+        <v>-908.93499999999995</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>3966.358687</v>
+        <v>3966.3586869999999</v>
       </c>
       <c r="CD19" s="1">
         <v>1.101766</v>
       </c>
       <c r="CE19" s="1">
-        <v>1810.070000</v>
+        <v>1810.07</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1423.910000</v>
+        <v>-1423.91</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>3794.430461</v>
+        <v>3794.4304609999999</v>
       </c>
       <c r="B20" s="1">
-        <v>1.054008</v>
+        <v>1.0540080000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>894.174000</v>
+        <v>894.17399999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>3804.846263</v>
+        <v>3804.8462629999999</v>
       </c>
       <c r="G20" s="1">
         <v>1.056902</v>
       </c>
       <c r="H20" s="1">
-        <v>912.401000</v>
+        <v>912.40099999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.187000</v>
+        <v>-166.18700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>3815.425558</v>
+        <v>3815.4255579999999</v>
       </c>
       <c r="L20" s="1">
-        <v>1.059840</v>
+        <v>1.0598399999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>936.932000</v>
+        <v>936.93200000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.685000</v>
+        <v>-118.685</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>3825.847992</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.062736</v>
+        <v>1.0627359999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>944.096000</v>
+        <v>944.096</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.771000</v>
+        <v>-102.771</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>3836.320027</v>
+        <v>3836.3200270000002</v>
       </c>
       <c r="V20" s="1">
         <v>1.065644</v>
       </c>
       <c r="W20" s="1">
-        <v>950.950000</v>
+        <v>950.95</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.910800</v>
+        <v>-87.910799999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>3847.168055</v>
+        <v>3847.1680550000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.068658</v>
+        <v>1.0686580000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.388000</v>
+        <v>958.38800000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.328900</v>
+        <v>-76.328900000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>3857.679743</v>
+        <v>3857.6797430000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.071578</v>
+        <v>1.0715779999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.266000</v>
+        <v>963.26599999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.058900</v>
+        <v>-74.058899999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>3868.220720</v>
+        <v>3868.2207199999998</v>
       </c>
       <c r="AK20" s="1">
         <v>1.074506</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.504000</v>
+        <v>970.50400000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-78.502000</v>
+        <v>-78.501999999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>3879.421410</v>
+        <v>3879.4214099999999</v>
       </c>
       <c r="AP20" s="1">
         <v>1.077617</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.552000</v>
+        <v>978.55200000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-89.725000</v>
+        <v>-89.724999999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>3890.196963</v>
+        <v>3890.1969629999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.080610</v>
+        <v>1.0806100000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.251000</v>
+        <v>988.25099999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-106.889000</v>
+        <v>-106.889</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>3900.835192</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.083565</v>
+        <v>1.0835649999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>996.337000</v>
+        <v>996.33699999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-122.124000</v>
+        <v>-122.124</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>3911.481783</v>
+        <v>3911.4817830000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.086523</v>
+        <v>1.0865229999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1033.820000</v>
+        <v>1033.82</v>
       </c>
       <c r="BG20" s="1">
-        <v>-192.423000</v>
+        <v>-192.423</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>3921.724201</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.089368</v>
+        <v>1.0893679999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1097.970000</v>
+        <v>1097.97</v>
       </c>
       <c r="BL20" s="1">
-        <v>-307.447000</v>
+        <v>-307.447</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>3933.015594</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.092504</v>
+        <v>1.0925039999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1202.570000</v>
+        <v>1202.57</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.562000</v>
+        <v>-490.56200000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>3943.289261</v>
+        <v>3943.2892609999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.095358</v>
+        <v>1.0953580000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1321.180000</v>
+        <v>1321.18</v>
       </c>
       <c r="BV20" s="1">
-        <v>-692.561000</v>
+        <v>-692.56100000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>3954.108494</v>
+        <v>3954.1084940000001</v>
       </c>
       <c r="BY20" s="1">
         <v>1.098363</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1455.260000</v>
+        <v>1455.26</v>
       </c>
       <c r="CA20" s="1">
-        <v>-908.860000</v>
+        <v>-908.86</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>3966.881741</v>
+        <v>3966.8817410000001</v>
       </c>
       <c r="CD20" s="1">
         <v>1.101912</v>
       </c>
       <c r="CE20" s="1">
-        <v>1810.600000</v>
+        <v>1810.6</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1422.850000</v>
+        <v>-1422.85</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>3794.846545</v>
+        <v>3794.8465449999999</v>
       </c>
       <c r="B21" s="1">
-        <v>1.054124</v>
+        <v>1.0541240000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>894.253000</v>
+        <v>894.25300000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.205000</v>
+        <v>-195.20500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>3805.262041</v>
       </c>
       <c r="G21" s="1">
-        <v>1.057017</v>
+        <v>1.0570170000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>912.505000</v>
+        <v>912.505</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.201000</v>
+        <v>-166.20099999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>3815.716213</v>
+        <v>3815.7162130000002</v>
       </c>
       <c r="L21" s="1">
-        <v>1.059921</v>
+        <v>1.0599209999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>936.983000</v>
+        <v>936.98299999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.753000</v>
+        <v>-118.753</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>3826.194275</v>
+        <v>3826.1942749999998</v>
       </c>
       <c r="Q21" s="1">
         <v>1.062832</v>
       </c>
       <c r="R21" s="1">
-        <v>944.093000</v>
+        <v>944.09299999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.754000</v>
+        <v>-102.754</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>3836.662795</v>
+        <v>3836.6627950000002</v>
       </c>
       <c r="V21" s="1">
-        <v>1.065740</v>
+        <v>1.0657399999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>950.995000</v>
+        <v>950.995</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.869200</v>
+        <v>-87.869200000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>3847.514758</v>
+        <v>3847.5147579999998</v>
       </c>
       <c r="AA21" s="1">
         <v>1.068754</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.464000</v>
+        <v>958.46400000000006</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.308800</v>
+        <v>-76.308800000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>3858.021981</v>
+        <v>3858.0219809999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.071673</v>
+        <v>1.0716730000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.292000</v>
+        <v>963.29200000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.056000</v>
+        <v>-74.055999999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>3868.912639</v>
+        <v>3868.9126390000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.074698</v>
+        <v>1.0746979999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.530000</v>
+        <v>970.53</v>
       </c>
       <c r="AM21" s="1">
-        <v>-78.514400</v>
+        <v>-78.514399999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>3879.809745</v>
@@ -5484,103 +5900,103 @@
         <v>1.077725</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.547000</v>
+        <v>978.54700000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-89.722100</v>
+        <v>-89.722099999999998</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>3890.592772</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.080720</v>
+        <v>1.0807199999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>988.256000</v>
+        <v>988.25599999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-106.889000</v>
+        <v>-106.889</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>3901.194261</v>
+        <v>3901.1942610000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1.083665</v>
+        <v>1.0836650000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>996.325000</v>
+        <v>996.32500000000005</v>
       </c>
       <c r="BB21" s="1">
-        <v>-122.104000</v>
+        <v>-122.104</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>3912.154885</v>
+        <v>3912.1548849999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.086710</v>
+        <v>1.0867100000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1033.810000</v>
+        <v>1033.81</v>
       </c>
       <c r="BG21" s="1">
-        <v>-192.415000</v>
+        <v>-192.41499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>3922.404185</v>
+        <v>3922.4041849999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.089557</v>
+        <v>1.0895570000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1097.950000</v>
+        <v>1097.95</v>
       </c>
       <c r="BL21" s="1">
-        <v>-307.428000</v>
+        <v>-307.428</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>3933.128186</v>
+        <v>3933.1281859999999</v>
       </c>
       <c r="BO21" s="1">
         <v>1.092536</v>
       </c>
       <c r="BP21" s="1">
-        <v>1202.560000</v>
+        <v>1202.56</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.604000</v>
+        <v>-490.60399999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>3943.705868</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.095474</v>
+        <v>1.0954740000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1321.300000</v>
+        <v>1321.3</v>
       </c>
       <c r="BV21" s="1">
-        <v>-692.566000</v>
+        <v>-692.56600000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>3954.531551</v>
@@ -5589,45 +6005,45 @@
         <v>1.098481</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1455.150000</v>
+        <v>1455.15</v>
       </c>
       <c r="CA21" s="1">
-        <v>-908.934000</v>
+        <v>-908.93399999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>3967.398335</v>
+        <v>3967.3983349999999</v>
       </c>
       <c r="CD21" s="1">
         <v>1.102055</v>
       </c>
       <c r="CE21" s="1">
-        <v>1809.340000</v>
+        <v>1809.34</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1422.150000</v>
+        <v>-1422.15</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>3795.131275</v>
+        <v>3795.1312750000002</v>
       </c>
       <c r="B22" s="1">
         <v>1.054203</v>
       </c>
       <c r="C22" s="1">
-        <v>894.352000</v>
+        <v>894.35199999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.255000</v>
+        <v>-195.255</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>3805.539299</v>
@@ -5636,13 +6052,13 @@
         <v>1.057094</v>
       </c>
       <c r="H22" s="1">
-        <v>912.379000</v>
+        <v>912.37900000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.163000</v>
+        <v>-166.16300000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>3816.059941</v>
@@ -5651,103 +6067,103 @@
         <v>1.060017</v>
       </c>
       <c r="M22" s="1">
-        <v>936.940000</v>
+        <v>936.94</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.646000</v>
+        <v>-118.646</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>3826.545864</v>
+        <v>3826.5458640000002</v>
       </c>
       <c r="Q22" s="1">
         <v>1.062929</v>
       </c>
       <c r="R22" s="1">
-        <v>944.068000</v>
+        <v>944.06799999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.778000</v>
+        <v>-102.77800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>3837.006985</v>
       </c>
       <c r="V22" s="1">
-        <v>1.065835</v>
+        <v>1.0658350000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>950.982000</v>
+        <v>950.98199999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.929900</v>
+        <v>-87.929900000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>3848.211625</v>
+        <v>3848.2116249999999</v>
       </c>
       <c r="AA22" s="1">
         <v>1.068948</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.462000</v>
+        <v>958.46199999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.263200</v>
+        <v>-76.263199999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>3858.709932</v>
+        <v>3858.7099320000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.071864</v>
+        <v>1.0718639999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.288000</v>
+        <v>963.28800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.051000</v>
+        <v>-74.051000000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>3869.258878</v>
+        <v>3869.2588780000001</v>
       </c>
       <c r="AK22" s="1">
         <v>1.074794</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.505000</v>
+        <v>970.505</v>
       </c>
       <c r="AM22" s="1">
-        <v>-78.510200</v>
+        <v>-78.510199999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>3880.169840</v>
+        <v>3880.16984</v>
       </c>
       <c r="AP22" s="1">
         <v>1.077825</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.569000</v>
+        <v>978.56899999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-89.700600</v>
+        <v>-89.700599999999994</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>3890.956338</v>
@@ -5756,195 +6172,195 @@
         <v>1.080821</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.249000</v>
+        <v>988.24900000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-106.909000</v>
+        <v>-106.90900000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>3901.859891</v>
+        <v>3901.8598910000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.083850</v>
+        <v>1.08385</v>
       </c>
       <c r="BA22" s="1">
-        <v>996.346000</v>
+        <v>996.346</v>
       </c>
       <c r="BB22" s="1">
-        <v>-122.104000</v>
+        <v>-122.104</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>3912.600757</v>
+        <v>3912.6007570000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.086834</v>
+        <v>1.0868340000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1033.790000</v>
+        <v>1033.79</v>
       </c>
       <c r="BG22" s="1">
-        <v>-192.401000</v>
+        <v>-192.40100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>3922.514329</v>
+        <v>3922.5143290000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.089587</v>
+        <v>1.0895870000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1097.970000</v>
+        <v>1097.97</v>
       </c>
       <c r="BL22" s="1">
-        <v>-307.460000</v>
+        <v>-307.45999999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>3933.531962</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.092648</v>
+        <v>1.0926480000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1202.530000</v>
+        <v>1202.53</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.561000</v>
+        <v>-490.56099999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>3944.132924</v>
       </c>
       <c r="BT22" s="1">
-        <v>1.095592</v>
+        <v>1.0955919999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1321.400000</v>
+        <v>1321.4</v>
       </c>
       <c r="BV22" s="1">
-        <v>-692.581000</v>
+        <v>-692.58100000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>3954.956623</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.098599</v>
+        <v>1.0985990000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1455.230000</v>
+        <v>1455.23</v>
       </c>
       <c r="CA22" s="1">
-        <v>-908.944000</v>
+        <v>-908.94399999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>3967.915100</v>
+        <v>3967.9151000000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.102199</v>
+        <v>1.1021989999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1808.800000</v>
+        <v>1808.8</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1423.480000</v>
+        <v>-1423.48</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>3795.475968</v>
+        <v>3795.4759680000002</v>
       </c>
       <c r="B23" s="1">
-        <v>1.054299</v>
+        <v>1.0542990000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>894.298000</v>
+        <v>894.298</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.321000</v>
+        <v>-195.321</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>3805.883061</v>
       </c>
       <c r="G23" s="1">
-        <v>1.057190</v>
+        <v>1.0571900000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>912.544000</v>
+        <v>912.54399999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.008000</v>
+        <v>-166.00800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>3816.404693</v>
       </c>
       <c r="L23" s="1">
-        <v>1.060112</v>
+        <v>1.0601119999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>936.942000</v>
+        <v>936.94200000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.666000</v>
+        <v>-118.666</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>3827.241255</v>
+        <v>3827.2412549999999</v>
       </c>
       <c r="Q23" s="1">
         <v>1.063123</v>
       </c>
       <c r="R23" s="1">
-        <v>944.054000</v>
+        <v>944.05399999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.746000</v>
+        <v>-102.746</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>3837.693944</v>
+        <v>3837.6939440000001</v>
       </c>
       <c r="V23" s="1">
-        <v>1.066026</v>
+        <v>1.0660259999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>950.977000</v>
+        <v>950.97699999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.955100</v>
+        <v>-87.955100000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>3848.560825</v>
@@ -5953,13 +6369,13 @@
         <v>1.069045</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.476000</v>
+        <v>958.476</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.309700</v>
+        <v>-76.309700000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>3859.050189</v>
@@ -5968,13 +6384,13 @@
         <v>1.071958</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.315000</v>
+        <v>963.31500000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.038600</v>
+        <v>-74.038600000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>3869.612494</v>
@@ -5983,165 +6399,165 @@
         <v>1.074892</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.511000</v>
+        <v>970.51099999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-78.502100</v>
+        <v>-78.502099999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>3880.835473</v>
+        <v>3880.8354730000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.078010</v>
+        <v>1.0780099999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.550000</v>
+        <v>978.55</v>
       </c>
       <c r="AR23" s="1">
-        <v>-89.705600</v>
+        <v>-89.705600000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>3891.675052</v>
+        <v>3891.6750520000001</v>
       </c>
       <c r="AU23" s="1">
         <v>1.081021</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.252000</v>
+        <v>988.25199999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-106.899000</v>
+        <v>-106.899</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>3902.303335</v>
+        <v>3902.3033350000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.083973</v>
+        <v>1.0839730000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>996.340000</v>
+        <v>996.34</v>
       </c>
       <c r="BB23" s="1">
-        <v>-122.127000</v>
+        <v>-122.127</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>3912.960853</v>
       </c>
       <c r="BE23" s="1">
-        <v>1.086934</v>
+        <v>1.0869340000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1033.800000</v>
+        <v>1033.8</v>
       </c>
       <c r="BG23" s="1">
-        <v>-192.407000</v>
+        <v>-192.40700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>3922.872938</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.089687</v>
+        <v>1.0896870000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1097.950000</v>
+        <v>1097.95</v>
       </c>
       <c r="BL23" s="1">
-        <v>-307.457000</v>
+        <v>-307.45699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>3933.928233</v>
+        <v>3933.9282330000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.092758</v>
+        <v>1.0927579999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1202.570000</v>
+        <v>1202.57</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.563000</v>
+        <v>-490.56299999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>3944.565932</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.095713</v>
+        <v>1.0957129999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1321.500000</v>
+        <v>1321.5</v>
       </c>
       <c r="BV23" s="1">
-        <v>-692.636000</v>
+        <v>-692.63599999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>3955.373756</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.098715</v>
+        <v>1.0987150000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1455.240000</v>
+        <v>1455.24</v>
       </c>
       <c r="CA23" s="1">
-        <v>-908.991000</v>
+        <v>-908.99099999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>3968.430949</v>
+        <v>3968.4309490000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.102342</v>
+        <v>1.1023419999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1808.720000</v>
+        <v>1808.72</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1422.970000</v>
+        <v>-1422.97</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>3795.818207</v>
+        <v>3795.8182069999998</v>
       </c>
       <c r="B24" s="1">
-        <v>1.054394</v>
+        <v>1.0543940000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>893.980000</v>
+        <v>893.98</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.272000</v>
+        <v>-195.27199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>3806.227277</v>
@@ -6150,178 +6566,178 @@
         <v>1.057285</v>
       </c>
       <c r="H24" s="1">
-        <v>912.612000</v>
+        <v>912.61199999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.114000</v>
+        <v>-166.114</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>3817.095587</v>
+        <v>3817.0955869999998</v>
       </c>
       <c r="L24" s="1">
-        <v>1.060304</v>
+        <v>1.0603039999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>936.918000</v>
+        <v>936.91800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.822000</v>
+        <v>-118.822</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>3827.590470</v>
+        <v>3827.5904700000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>1.063220</v>
+        <v>1.0632200000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>944.063000</v>
+        <v>944.06299999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.760000</v>
+        <v>-102.76</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>3838.037672</v>
+        <v>3838.0376719999999</v>
       </c>
       <c r="V24" s="1">
         <v>1.066122</v>
       </c>
       <c r="W24" s="1">
-        <v>950.996000</v>
+        <v>950.99599999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.880600</v>
+        <v>-87.880600000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>3848.911498</v>
+        <v>3848.9114979999999</v>
       </c>
       <c r="AA24" s="1">
         <v>1.069142</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.458000</v>
+        <v>958.45799999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.322800</v>
+        <v>-76.322800000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>3859.707387</v>
+        <v>3859.7073869999999</v>
       </c>
       <c r="AF24" s="1">
         <v>1.072141</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.299000</v>
+        <v>963.29899999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.068400</v>
+        <v>-74.068399999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>3870.279118</v>
+        <v>3870.2791179999999</v>
       </c>
       <c r="AK24" s="1">
         <v>1.075078</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.501000</v>
+        <v>970.50099999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-78.516100</v>
+        <v>-78.516099999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>3881.279422</v>
+        <v>3881.2794220000001</v>
       </c>
       <c r="AP24" s="1">
         <v>1.078133</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.538000</v>
+        <v>978.53800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-89.698500</v>
+        <v>-89.698499999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>3892.071592</v>
+        <v>3892.0715919999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.081131</v>
+        <v>1.0811310000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.265000</v>
+        <v>988.26499999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-106.897000</v>
+        <v>-106.89700000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>3902.664908</v>
+        <v>3902.6649080000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>1.084074</v>
       </c>
       <c r="BA24" s="1">
-        <v>996.344000</v>
+        <v>996.34400000000005</v>
       </c>
       <c r="BB24" s="1">
-        <v>-122.097000</v>
+        <v>-122.09699999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>3913.324917</v>
+        <v>3913.3249169999999</v>
       </c>
       <c r="BE24" s="1">
         <v>1.087035</v>
       </c>
       <c r="BF24" s="1">
-        <v>1033.810000</v>
+        <v>1033.81</v>
       </c>
       <c r="BG24" s="1">
-        <v>-192.411000</v>
+        <v>-192.411</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>3923.247383</v>
+        <v>3923.2473829999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>1.089791</v>
       </c>
       <c r="BK24" s="1">
-        <v>1097.970000</v>
+        <v>1097.97</v>
       </c>
       <c r="BL24" s="1">
-        <v>-307.448000</v>
+        <v>-307.44799999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>3934.348344</v>
@@ -6330,347 +6746,347 @@
         <v>1.092875</v>
       </c>
       <c r="BP24" s="1">
-        <v>1202.530000</v>
+        <v>1202.53</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.597000</v>
+        <v>-490.59699999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>3944.962234</v>
+        <v>3944.9622340000001</v>
       </c>
       <c r="BT24" s="1">
         <v>1.095823</v>
       </c>
       <c r="BU24" s="1">
-        <v>1321.520000</v>
+        <v>1321.52</v>
       </c>
       <c r="BV24" s="1">
-        <v>-692.722000</v>
+        <v>-692.72199999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>3955.819199</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.098839</v>
+        <v>1.0988389999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1455.260000</v>
+        <v>1455.26</v>
       </c>
       <c r="CA24" s="1">
-        <v>-908.950000</v>
+        <v>-908.95</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>3968.984475</v>
+        <v>3968.9844750000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.102496</v>
+        <v>1.1024959999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1809.420000</v>
+        <v>1809.42</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1422.260000</v>
+        <v>-1422.26</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>3796.499743</v>
+        <v>3796.4997429999999</v>
       </c>
       <c r="B25" s="1">
         <v>1.054583</v>
       </c>
       <c r="C25" s="1">
-        <v>894.175000</v>
+        <v>894.17499999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.239000</v>
+        <v>-195.239</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>3806.919665</v>
+        <v>3806.9196649999999</v>
       </c>
       <c r="G25" s="1">
-        <v>1.057478</v>
+        <v>1.0574779999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>912.467000</v>
+        <v>912.46699999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.990000</v>
+        <v>-165.99</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>3817.441828</v>
       </c>
       <c r="L25" s="1">
-        <v>1.060401</v>
+        <v>1.0604009999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>937.001000</v>
+        <v>937.00099999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.667000</v>
+        <v>-118.667</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>3827.940154</v>
+        <v>3827.9401539999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.063317</v>
+        <v>1.0633170000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>944.112000</v>
+        <v>944.11199999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>3838.380407</v>
+        <v>3838.3804070000001</v>
       </c>
       <c r="V25" s="1">
         <v>1.066217</v>
       </c>
       <c r="W25" s="1">
-        <v>951.049000</v>
+        <v>951.04899999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.904900</v>
+        <v>-87.904899999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>3849.568170</v>
+        <v>3849.56817</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.069324</v>
+        <v>1.0693239999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.490000</v>
+        <v>958.49</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.341500</v>
+        <v>-76.341499999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>3860.083354</v>
+        <v>3860.0833539999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.072245</v>
+        <v>1.0722449999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.316000</v>
+        <v>963.31600000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.069700</v>
+        <v>-74.069699999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>3870.657081</v>
+        <v>3870.6570809999998</v>
       </c>
       <c r="AK25" s="1">
         <v>1.075183</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.507000</v>
+        <v>970.50699999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-78.510400</v>
+        <v>-78.510400000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>3881.636510</v>
+        <v>3881.6365099999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.078232</v>
+        <v>1.0782320000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.534000</v>
+        <v>978.53399999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-89.713700</v>
+        <v>-89.713700000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>3892.440368</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.081233</v>
+        <v>1.0812330000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.263000</v>
+        <v>988.26300000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-106.917000</v>
+        <v>-106.917</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>3903.022514</v>
+        <v>3903.0225139999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>1.084173</v>
+        <v>1.0841730000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>996.332000</v>
+        <v>996.33199999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-122.106000</v>
+        <v>-122.10599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>3913.747540</v>
+        <v>3913.7475399999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>1.087152</v>
+        <v>1.0871519999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1033.790000</v>
+        <v>1033.79</v>
       </c>
       <c r="BG25" s="1">
-        <v>-192.410000</v>
+        <v>-192.41</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>3923.665016</v>
+        <v>3923.6650159999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>1.089907</v>
       </c>
       <c r="BK25" s="1">
-        <v>1097.970000</v>
+        <v>1097.97</v>
       </c>
       <c r="BL25" s="1">
-        <v>-307.410000</v>
+        <v>-307.41000000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>3934.746633</v>
+        <v>3934.7466330000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.092985</v>
+        <v>1.0929850000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1202.550000</v>
+        <v>1202.55</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.596000</v>
+        <v>-490.596</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>3945.374906</v>
       </c>
       <c r="BT25" s="1">
-        <v>1.095937</v>
+        <v>1.0959369999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1321.550000</v>
+        <v>1321.55</v>
       </c>
       <c r="BV25" s="1">
-        <v>-692.840000</v>
+        <v>-692.84</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>3956.241300</v>
+        <v>3956.2413000000001</v>
       </c>
       <c r="BY25" s="1">
         <v>1.098956</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1455.270000</v>
+        <v>1455.27</v>
       </c>
       <c r="CA25" s="1">
-        <v>-909.036000</v>
+        <v>-909.03599999999994</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>3969.514213</v>
+        <v>3969.5142129999999</v>
       </c>
       <c r="CD25" s="1">
         <v>1.102643</v>
       </c>
       <c r="CE25" s="1">
-        <v>1808.720000</v>
+        <v>1808.72</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1423.380000</v>
+        <v>-1423.38</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>3796.841950</v>
+        <v>3796.84195</v>
       </c>
       <c r="B26" s="1">
         <v>1.054678</v>
       </c>
       <c r="C26" s="1">
-        <v>894.239000</v>
+        <v>894.23900000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.349000</v>
+        <v>-195.34899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>3807.266368</v>
+        <v>3807.2663680000001</v>
       </c>
       <c r="G26" s="1">
         <v>1.057574</v>
       </c>
       <c r="H26" s="1">
-        <v>912.573000</v>
+        <v>912.57299999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.220000</v>
+        <v>-166.22</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>3817.789988</v>
@@ -6679,28 +7095,28 @@
         <v>1.060497</v>
       </c>
       <c r="M26" s="1">
-        <v>936.826000</v>
+        <v>936.82600000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.766000</v>
+        <v>-118.76600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>3828.598804</v>
+        <v>3828.5988040000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.063500</v>
+        <v>1.0634999999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>944.112000</v>
+        <v>944.11199999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.808000</v>
+        <v>-102.80800000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>3839.022759</v>
@@ -6709,178 +7125,178 @@
         <v>1.066395</v>
       </c>
       <c r="W26" s="1">
-        <v>951.028000</v>
+        <v>951.02800000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.903000</v>
+        <v>-87.903000000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>3849.956567</v>
+        <v>3849.9565670000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.069432</v>
+        <v>1.0694319999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.540000</v>
+        <v>958.54</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.368200</v>
+        <v>-76.368200000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>3860.427082</v>
+        <v>3860.4270820000002</v>
       </c>
       <c r="AF26" s="1">
         <v>1.072341</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.300000</v>
+        <v>963.3</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.057300</v>
+        <v>-74.057299999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>3871.006900</v>
+        <v>3871.0068999999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.075280</v>
+        <v>1.07528</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.536000</v>
+        <v>970.53599999999994</v>
       </c>
       <c r="AM26" s="1">
-        <v>-78.510300</v>
+        <v>-78.510300000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>3881.998125</v>
+        <v>3881.9981250000001</v>
       </c>
       <c r="AP26" s="1">
         <v>1.078333</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.549000</v>
+        <v>978.54899999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-89.710100</v>
+        <v>-89.710099999999997</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>3892.862994</v>
+        <v>3892.8629940000001</v>
       </c>
       <c r="AU26" s="1">
         <v>1.081351</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.250000</v>
+        <v>988.25</v>
       </c>
       <c r="AW26" s="1">
-        <v>-106.883000</v>
+        <v>-106.883</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>3903.438657</v>
+        <v>3903.4386570000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.084289</v>
+        <v>1.0842890000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>996.337000</v>
+        <v>996.33699999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-122.118000</v>
+        <v>-122.11799999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>3914.048118</v>
+        <v>3914.0481180000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>1.087236</v>
+        <v>1.0872360000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1033.790000</v>
+        <v>1033.79</v>
       </c>
       <c r="BG26" s="1">
-        <v>-192.414000</v>
+        <v>-192.41399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>3924.000806</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.090000</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1097.950000</v>
+        <v>1097.95</v>
       </c>
       <c r="BL26" s="1">
-        <v>-307.429000</v>
+        <v>-307.42899999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>3935.169720</v>
+        <v>3935.1697199999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.093103</v>
+        <v>1.0931029999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1202.570000</v>
+        <v>1202.57</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.577000</v>
+        <v>-490.577</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>3945.777657</v>
+        <v>3945.7776570000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.096049</v>
+        <v>1.0960490000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1321.530000</v>
+        <v>1321.53</v>
       </c>
       <c r="BV26" s="1">
-        <v>-692.967000</v>
+        <v>-692.96699999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>3956.665349</v>
+        <v>3956.6653489999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.099074</v>
+        <v>1.0990740000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1455.160000</v>
+        <v>1455.16</v>
       </c>
       <c r="CA26" s="1">
-        <v>-908.932000</v>
+        <v>-908.93200000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>3970.034506</v>
@@ -6889,15 +7305,16 @@
         <v>1.102787</v>
       </c>
       <c r="CE26" s="1">
-        <v>1810.800000</v>
+        <v>1810.8</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1423.350000</v>
+        <v>-1423.35</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>